--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_Provider.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_Provider.xlsx
@@ -113,7 +113,7 @@
     <t>FIRST_NAME_FIELD</t>
   </si>
   <si>
-    <t>_Fname</t>
+    <t>Fname</t>
   </si>
   <si>
     <t>Enter First name</t>
@@ -125,7 +125,7 @@
     <t>LAST_NAME_FIELD</t>
   </si>
   <si>
-    <t>_Lname</t>
+    <t>Lname</t>
   </si>
   <si>
     <t>Enter last name</t>
@@ -1453,10 +1453,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1505,11 +1505,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1521,6 +1529,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1535,8 +1559,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1557,19 +1627,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1581,69 +1642,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1688,55 +1688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1748,37 +1700,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1790,19 +1712,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1820,7 +1730,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1832,31 +1826,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1935,6 +1935,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1965,6 +1974,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1985,15 +2024,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2002,46 +2032,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2053,130 +2053,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2666,10 +2666,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:H202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="C206" sqref="C206"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="E180" sqref="E180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4015,7 +4015,7 @@
       <c r="C61" s="8"/>
       <c r="D61" s="13"/>
       <c r="E61" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
@@ -5233,7 +5233,7 @@
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
       <c r="E119" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F119" s="10"/>
       <c r="G119" s="10"/>
@@ -5326,1592 +5326,1608 @@
       <c r="H123" s="17"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="12">
+      <c r="A124" s="11">
         <v>123</v>
       </c>
-      <c r="B124" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="G124" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="H124" s="18"/>
+      <c r="B124" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10">
+        <v>5</v>
+      </c>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="17"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="11">
         <v>124</v>
       </c>
-      <c r="B125" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="E125" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="F125" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="G125" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="H125" s="17"/>
+      <c r="B125" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="H125" s="18"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="11">
         <v>125</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C126" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D126" s="8" t="s">
+      <c r="D126" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="G126" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="H126" s="17"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="11">
+        <v>126</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="E126" s="8" t="s">
+      <c r="E127" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="F126" s="8" t="s">
+      <c r="F127" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="G126" s="8" t="s">
+      <c r="G127" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="H126" s="18"/>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="12">
-        <v>126</v>
-      </c>
-      <c r="B127" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G127" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H127" s="17"/>
+      <c r="H127" s="18"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="11">
         <v>127</v>
       </c>
-      <c r="B128" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8">
-        <v>4</v>
-      </c>
-      <c r="F128" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G128" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H128" s="18"/>
+      <c r="B128" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G128" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H128" s="17"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="11">
         <v>128</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8">
+        <v>4</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H129" s="18"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="11">
+        <v>129</v>
+      </c>
+      <c r="B130" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C129" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D129" s="10" t="s">
+      <c r="C130" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D130" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10" t="s">
+      <c r="E130" s="10"/>
+      <c r="F130" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="G129" s="10" t="s">
+      <c r="G130" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="H129" s="17"/>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="12">
-        <v>129</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C130" s="8"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="8">
-        <v>1</v>
-      </c>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="18"/>
+      <c r="H130" s="17"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="11">
         <v>130</v>
       </c>
-      <c r="B131" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D131" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="17"/>
+      <c r="B131" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="8"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="8">
+        <v>1</v>
+      </c>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="18"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="11">
         <v>131</v>
       </c>
-      <c r="B132" s="8" t="s">
+      <c r="B132" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D132" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="17"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="11">
+        <v>132</v>
+      </c>
+      <c r="B133" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C132" s="8"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="8">
+      <c r="C133" s="8"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="8">
         <v>1</v>
       </c>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="18"/>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="12">
-        <v>132</v>
-      </c>
-      <c r="B133" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D133" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="G133" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="H133" s="17"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="18"/>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="11">
         <v>133</v>
       </c>
-      <c r="B134" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8">
-        <v>3</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="G134" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="H134" s="18"/>
+      <c r="B134" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D134" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="G134" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="H134" s="17"/>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="11">
         <v>134</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B135" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8">
+        <v>3</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="H135" s="18"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="11">
+        <v>135</v>
+      </c>
+      <c r="B136" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C135" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D135" s="10" t="s">
+      <c r="C136" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10" t="s">
+      <c r="E136" s="10"/>
+      <c r="F136" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="G135" s="10" t="s">
+      <c r="G136" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="H135" s="17"/>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" s="12">
-        <v>135</v>
-      </c>
-      <c r="B136" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="G136" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="H136" s="18"/>
+      <c r="H136" s="17"/>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="11">
         <v>136</v>
       </c>
-      <c r="B137" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C137" s="10"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="10">
-        <v>2</v>
-      </c>
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
-      <c r="H137" s="17"/>
+      <c r="B137" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="H137" s="18"/>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="11">
         <v>137</v>
       </c>
-      <c r="B138" s="8" t="s">
+      <c r="B138" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10">
+        <v>2</v>
+      </c>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="17"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="11">
+        <v>138</v>
+      </c>
+      <c r="B139" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C138" s="8" t="s">
+      <c r="C139" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D138" s="8" t="s">
+      <c r="D139" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="E138" s="8" t="s">
+      <c r="E139" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="F138" s="8" t="s">
+      <c r="F139" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="G138" s="8" t="s">
+      <c r="G139" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="H138" s="18"/>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139" s="12">
-        <v>138</v>
-      </c>
-      <c r="B139" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="E139" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="F139" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="G139" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="H139" s="17"/>
+      <c r="H139" s="18"/>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="11">
         <v>139</v>
       </c>
-      <c r="B140" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C140" s="8" t="s">
+      <c r="B140" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C140" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D140" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E140" s="8">
-        <v>9889656446</v>
-      </c>
-      <c r="F140" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="G140" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="H140" s="18"/>
+      <c r="D140" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F140" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="G140" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="H140" s="17"/>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="11">
         <v>140</v>
       </c>
-      <c r="B141" s="10" t="s">
+      <c r="B141" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E141" s="8">
+        <v>9889656446</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H141" s="18"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="11">
+        <v>141</v>
+      </c>
+      <c r="B142" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C141" s="10" t="s">
+      <c r="C142" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D141" s="10" t="s">
+      <c r="D142" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10" t="s">
+      <c r="E142" s="10"/>
+      <c r="F142" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="G141" s="10" t="s">
+      <c r="G142" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="H141" s="17"/>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" s="12">
-        <v>141</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8">
-        <v>4</v>
-      </c>
-      <c r="F142" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G142" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H142" s="18"/>
+      <c r="H142" s="17"/>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="11">
         <v>142</v>
       </c>
-      <c r="B143" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D143" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="G143" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="H143" s="17"/>
+      <c r="B143" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8">
+        <v>4</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H143" s="18"/>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="11">
         <v>143</v>
       </c>
-      <c r="B144" s="8" t="s">
+      <c r="B144" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C144" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D144" s="8" t="s">
+      <c r="C144" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="G144" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="H144" s="17"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="11">
+        <v>144</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8" t="s">
+      <c r="E145" s="8"/>
+      <c r="F145" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="G144" s="8" t="s">
+      <c r="G145" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="H144" s="18"/>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="12">
-        <v>144</v>
-      </c>
-      <c r="B145" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D145" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="G145" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="H145" s="17"/>
+      <c r="H145" s="18"/>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="11">
         <v>145</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="B146" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C146" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="G146" s="8" t="s">
+      <c r="C146" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="G146" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="H146" s="18"/>
+      <c r="H146" s="17"/>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="11">
         <v>146</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="B147" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C147" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D147" s="10" t="s">
+      <c r="C147" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="H147" s="18"/>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="11">
+        <v>147</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D148" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="E147" s="10"/>
-      <c r="F147" s="10" t="s">
+      <c r="E148" s="10"/>
+      <c r="F148" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="G147" s="10" t="s">
+      <c r="G148" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="H147" s="17"/>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" s="12">
-        <v>147</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="G148" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="H148" s="18"/>
+      <c r="H148" s="17"/>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="11">
         <v>148</v>
       </c>
-      <c r="B149" s="10" t="s">
+      <c r="B149" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C149" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D149" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="E149" s="10"/>
-      <c r="F149" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="G149" s="10" t="s">
+      <c r="C149" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="G149" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="H149" s="17"/>
+      <c r="H149" s="18"/>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="11">
         <v>149</v>
       </c>
-      <c r="B150" s="8" t="s">
+      <c r="B150" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C150" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D150" s="8" t="s">
+      <c r="C150" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="G150" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="H150" s="17"/>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="11">
+        <v>150</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="E150" s="8"/>
-      <c r="F150" s="8" t="s">
+      <c r="E151" s="8"/>
+      <c r="F151" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="G150" s="8" t="s">
+      <c r="G151" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="H150" s="18"/>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="A151" s="12">
-        <v>150</v>
-      </c>
-      <c r="B151" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D151" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="E151" s="10"/>
-      <c r="F151" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="G151" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="H151" s="17"/>
+      <c r="H151" s="18"/>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="11">
         <v>151</v>
       </c>
-      <c r="B152" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C152" s="8"/>
-      <c r="D152" s="8"/>
-      <c r="E152" s="8">
-        <v>5</v>
-      </c>
-      <c r="F152" s="8"/>
-      <c r="G152" s="8"/>
-      <c r="H152" s="18"/>
+      <c r="B152" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="G152" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="H152" s="17"/>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="11">
         <v>152</v>
       </c>
       <c r="B153" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="8">
+        <v>5</v>
+      </c>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
+      <c r="H153" s="18"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="11">
+        <v>153</v>
+      </c>
+      <c r="B154" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C153" s="11" t="s">
+      <c r="C154" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D153" s="11" t="s">
+      <c r="D154" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E153" s="11"/>
-      <c r="F153" s="11" t="s">
+      <c r="E154" s="11"/>
+      <c r="F154" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G153" s="11" t="s">
+      <c r="G154" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H153" s="18">
+      <c r="H154" s="18">
         <v>3</v>
       </c>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154" s="12">
-        <v>153</v>
-      </c>
-      <c r="B154" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C154" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D154" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E154" s="12"/>
-      <c r="F154" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G154" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H154" s="18"/>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="11">
         <v>154</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C155" s="12"/>
-      <c r="D155" s="12"/>
-      <c r="E155" s="12">
-        <v>5</v>
-      </c>
-      <c r="F155" s="12"/>
-      <c r="G155" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="C155" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G155" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="H155" s="18"/>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="11">
         <v>155</v>
       </c>
-      <c r="B156" s="8" t="s">
+      <c r="B156" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" s="12"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12">
+        <v>5</v>
+      </c>
+      <c r="F156" s="12"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="18"/>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="11">
+        <v>156</v>
+      </c>
+      <c r="B157" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C156" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D156" s="13" t="s">
+      <c r="C157" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="E156" s="8"/>
-      <c r="F156" s="8" t="s">
+      <c r="E157" s="8"/>
+      <c r="F157" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="G156" s="8" t="s">
+      <c r="G157" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="H156" s="8"/>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157" s="12">
-        <v>156</v>
-      </c>
-      <c r="B157" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D157" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="E157" s="10"/>
-      <c r="F157" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="G157" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="H157" s="10"/>
+      <c r="H157" s="8"/>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="11">
         <v>157</v>
       </c>
-      <c r="B158" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C158" s="8"/>
-      <c r="D158" s="8"/>
-      <c r="E158" s="8">
-        <v>20</v>
-      </c>
-      <c r="F158" s="8"/>
-      <c r="G158" s="8"/>
-      <c r="H158" s="8"/>
+      <c r="B158" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="G158" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="H158" s="10"/>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="11">
         <v>158</v>
       </c>
-      <c r="B159" s="10" t="s">
+      <c r="B159" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="8">
+        <v>20</v>
+      </c>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
+      <c r="H159" s="8"/>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="11">
+        <v>159</v>
+      </c>
+      <c r="B160" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C159" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D159" s="15" t="s">
+      <c r="C160" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D160" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="E159" s="10"/>
-      <c r="F159" s="10" t="s">
+      <c r="E160" s="10"/>
+      <c r="F160" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="G159" s="10" t="s">
+      <c r="G160" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="H159" s="10"/>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160" s="12">
-        <v>159</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D160" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="E160" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="F160" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="G160" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="H160" s="8"/>
+      <c r="H160" s="10"/>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="11">
         <v>160</v>
       </c>
-      <c r="B161" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D161" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="E161" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="F161" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="G161" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="H161" s="10"/>
+      <c r="B161" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="G161" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="H161" s="8"/>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="11">
         <v>161</v>
       </c>
-      <c r="B162" s="8" t="s">
+      <c r="B162" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D162" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="E162" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="F162" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="G162" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="H162" s="10"/>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="11">
+        <v>162</v>
+      </c>
+      <c r="B163" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="C162" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D162" s="13" t="s">
+      <c r="C163" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D163" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="E162" s="8" t="s">
+      <c r="E163" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="F162" s="8" t="s">
+      <c r="F163" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="G162" s="8" t="s">
+      <c r="G163" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="H162" s="8"/>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" s="12">
-        <v>162</v>
-      </c>
-      <c r="B163" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D163" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E163" s="10"/>
-      <c r="F163" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="G163" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="H163" s="10"/>
+      <c r="H163" s="8"/>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="11">
         <v>163</v>
       </c>
-      <c r="B164" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C164" s="8"/>
-      <c r="D164" s="8"/>
-      <c r="E164" s="8">
-        <v>20</v>
-      </c>
-      <c r="F164" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G164" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H164" s="8"/>
+      <c r="B164" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D164" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="G164" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="H164" s="10"/>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="11">
         <v>164</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="B165" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8">
+        <v>20</v>
+      </c>
+      <c r="F165" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G165" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H165" s="8"/>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="11">
+        <v>165</v>
+      </c>
+      <c r="B166" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="C165" s="10"/>
-      <c r="D165" s="10"/>
-      <c r="E165" s="10"/>
-      <c r="F165" s="10"/>
-      <c r="G165" s="10"/>
-      <c r="H165" s="10"/>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" s="12">
-        <v>165</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C166" s="8"/>
-      <c r="D166" s="8"/>
-      <c r="E166" s="8">
-        <v>10</v>
-      </c>
-      <c r="F166" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G166" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H166" s="8"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
+      <c r="H166" s="10"/>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="11">
         <v>166</v>
       </c>
-      <c r="B167" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C167" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D167" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="E167" s="10"/>
-      <c r="F167" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="G167" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="H167" s="10"/>
+      <c r="B167" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" s="8"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="8">
+        <v>10</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G167" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H167" s="8"/>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="11">
         <v>167</v>
       </c>
-      <c r="B168" s="8" t="s">
+      <c r="B168" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="E168" s="10"/>
+      <c r="F168" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="G168" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H168" s="10"/>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="11">
+        <v>168</v>
+      </c>
+      <c r="B169" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C168" s="8"/>
-      <c r="D168" s="8"/>
-      <c r="E168" s="8">
+      <c r="C169" s="8"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="8">
         <v>5</v>
       </c>
-      <c r="F168" s="8"/>
-      <c r="G168" s="8"/>
-      <c r="H168" s="8"/>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="A169" s="12">
-        <v>168</v>
-      </c>
-      <c r="B169" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D169" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="E169" s="10"/>
-      <c r="F169" s="10"/>
-      <c r="G169" s="10"/>
-      <c r="H169" s="17">
-        <v>3</v>
-      </c>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8"/>
+      <c r="H169" s="8"/>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="11">
         <v>169</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C170" s="10"/>
-      <c r="D170" s="15"/>
-      <c r="E170" s="10">
-        <v>1</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D170" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="E170" s="10"/>
       <c r="F170" s="10"/>
       <c r="G170" s="10"/>
-      <c r="H170" s="17"/>
+      <c r="H170" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="11">
         <v>170</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B171" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" s="10"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="10">
+        <v>1</v>
+      </c>
+      <c r="F171" s="10"/>
+      <c r="G171" s="10"/>
+      <c r="H171" s="17"/>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="11">
+        <v>171</v>
+      </c>
+      <c r="B172" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C171" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D171" s="13" t="s">
+      <c r="C172" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D172" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E171" s="8"/>
-      <c r="F171" s="8" t="s">
+      <c r="E172" s="8"/>
+      <c r="F172" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G171" s="8" t="s">
+      <c r="G172" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H171" s="18"/>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="A172" s="12">
-        <v>171</v>
-      </c>
-      <c r="B172" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C172" s="10"/>
-      <c r="D172" s="10"/>
-      <c r="E172" s="10">
-        <v>5</v>
-      </c>
-      <c r="F172" s="10"/>
-      <c r="G172" s="10"/>
-      <c r="H172" s="17"/>
+      <c r="H172" s="18"/>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="11">
         <v>172</v>
       </c>
-      <c r="B173" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C173" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D173" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="E173" s="8"/>
-      <c r="F173" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="G173" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="H173" s="8"/>
+      <c r="B173" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" s="10"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10">
+        <v>5</v>
+      </c>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10"/>
+      <c r="H173" s="17"/>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="11">
         <v>173</v>
       </c>
-      <c r="B174" s="10" t="s">
+      <c r="B174" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C174" s="10" t="s">
+      <c r="C174" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D174" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="E174" s="8"/>
+      <c r="F174" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="G174" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="H174" s="8"/>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="11">
+        <v>174</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C175" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D174" s="15" t="s">
+      <c r="D175" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="E174" s="10"/>
-      <c r="F174" s="10" t="s">
+      <c r="E175" s="10"/>
+      <c r="F175" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="G174" s="10" t="s">
+      <c r="G175" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="H174" s="10"/>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="A175" s="12">
-        <v>174</v>
-      </c>
-      <c r="B175" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C175" s="8"/>
-      <c r="D175" s="8"/>
-      <c r="E175" s="8">
-        <v>3</v>
-      </c>
-      <c r="F175" s="8"/>
-      <c r="G175" s="8"/>
-      <c r="H175" s="8"/>
+      <c r="H175" s="10"/>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="11">
         <v>175</v>
       </c>
-      <c r="B176" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C176" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D176" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="E176" s="10"/>
-      <c r="F176" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="G176" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="H176" s="10"/>
+      <c r="B176" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" s="8"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="8">
+        <v>3</v>
+      </c>
+      <c r="F176" s="8"/>
+      <c r="G176" s="8"/>
+      <c r="H176" s="8"/>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="11">
         <v>176</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="B177" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D177" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="E177" s="10"/>
+      <c r="F177" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="G177" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="H177" s="10"/>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="11">
+        <v>177</v>
+      </c>
+      <c r="B178" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
-      <c r="E177" s="8">
+      <c r="C178" s="8"/>
+      <c r="D178" s="8"/>
+      <c r="E178" s="8">
         <v>3</v>
       </c>
-      <c r="F177" s="8"/>
-      <c r="G177" s="8"/>
-      <c r="H177" s="8"/>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" s="12">
-        <v>177</v>
-      </c>
-      <c r="B178" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C178" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D178" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="E178" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="F178" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="G178" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="H178" s="10"/>
+      <c r="F178" s="8"/>
+      <c r="G178" s="8"/>
+      <c r="H178" s="8"/>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="11">
         <v>178</v>
       </c>
-      <c r="B179" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C179" s="8"/>
-      <c r="D179" s="13"/>
-      <c r="E179" s="8">
-        <v>3</v>
-      </c>
-      <c r="F179" s="8"/>
-      <c r="G179" s="8"/>
-      <c r="H179" s="8"/>
+      <c r="B179" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D179" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="E179" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="F179" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="G179" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="H179" s="10"/>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="11">
         <v>179</v>
       </c>
-      <c r="B180" s="10" t="s">
+      <c r="B180" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" s="8"/>
+      <c r="D180" s="13"/>
+      <c r="E180" s="8">
+        <v>5</v>
+      </c>
+      <c r="F180" s="8"/>
+      <c r="G180" s="8"/>
+      <c r="H180" s="8"/>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="11">
+        <v>180</v>
+      </c>
+      <c r="B181" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C180" s="10"/>
-      <c r="D180" s="15"/>
-      <c r="E180" s="10"/>
-      <c r="F180" s="10" t="s">
+      <c r="C181" s="10"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="10"/>
+      <c r="F181" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="G180" s="10" t="s">
+      <c r="G181" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="H180" s="10"/>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="A181" s="12">
-        <v>180</v>
-      </c>
-      <c r="B181" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C181" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D181" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="E181" s="8"/>
-      <c r="F181" s="8"/>
-      <c r="G181" s="8"/>
-      <c r="H181" s="8"/>
+      <c r="H181" s="10"/>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="11">
         <v>181</v>
       </c>
-      <c r="B182" s="10" t="s">
+      <c r="B182" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C182" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D182" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="E182" s="10"/>
-      <c r="F182" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="G182" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H182" s="10"/>
+      <c r="C182" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D182" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="E182" s="8"/>
+      <c r="F182" s="8"/>
+      <c r="G182" s="8"/>
+      <c r="H182" s="8"/>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="11">
         <v>182</v>
       </c>
-      <c r="B183" s="8" t="s">
+      <c r="B183" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C183" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D183" s="13" t="s">
+      <c r="C183" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D183" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="E183" s="10"/>
+      <c r="F183" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G183" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H183" s="10"/>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="11">
+        <v>183</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D184" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="E183" s="8"/>
-      <c r="F183" s="8"/>
-      <c r="G183" s="8"/>
-      <c r="H183" s="8"/>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="A184" s="12">
-        <v>183</v>
-      </c>
-      <c r="B184" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C184" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D184" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="E184" s="10"/>
-      <c r="F184" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="G184" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H184" s="10"/>
+      <c r="E184" s="8"/>
+      <c r="F184" s="8"/>
+      <c r="G184" s="8"/>
+      <c r="H184" s="8"/>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="11">
         <v>184</v>
       </c>
-      <c r="B185" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C185" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D185" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="E185" s="8">
-        <v>200</v>
-      </c>
-      <c r="F185" s="8"/>
-      <c r="G185" s="8"/>
-      <c r="H185" s="8"/>
+      <c r="B185" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D185" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="E185" s="10"/>
+      <c r="F185" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G185" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H185" s="10"/>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="11">
         <v>185</v>
       </c>
-      <c r="B186" s="10" t="s">
+      <c r="B186" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D186" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="E186" s="8">
+        <v>200</v>
+      </c>
+      <c r="F186" s="8"/>
+      <c r="G186" s="8"/>
+      <c r="H186" s="8"/>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="11">
+        <v>186</v>
+      </c>
+      <c r="B187" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C186" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D186" s="15" t="s">
+      <c r="C187" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D187" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="E186" s="10"/>
-      <c r="F186" s="10" t="s">
+      <c r="E187" s="10"/>
+      <c r="F187" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G186" s="10" t="s">
+      <c r="G187" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="H186" s="10"/>
-    </row>
-    <row r="187" spans="1:8">
-      <c r="A187" s="12">
-        <v>186</v>
-      </c>
-      <c r="B187" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C187" s="8"/>
-      <c r="D187" s="13"/>
-      <c r="E187" s="8">
-        <v>3</v>
-      </c>
-      <c r="F187" s="8"/>
-      <c r="G187" s="8"/>
-      <c r="H187" s="8"/>
+      <c r="H187" s="10"/>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="11">
         <v>187</v>
       </c>
-      <c r="B188" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C188" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D188" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="E188" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="F188" s="10"/>
-      <c r="G188" s="10"/>
-      <c r="H188" s="10"/>
+      <c r="B188" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188" s="8"/>
+      <c r="D188" s="13"/>
+      <c r="E188" s="8">
+        <v>3</v>
+      </c>
+      <c r="F188" s="8"/>
+      <c r="G188" s="8"/>
+      <c r="H188" s="8"/>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="11">
         <v>188</v>
       </c>
-      <c r="B189" s="8" t="s">
+      <c r="B189" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D189" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="E189" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="F189" s="10"/>
+      <c r="G189" s="10"/>
+      <c r="H189" s="10"/>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="11">
+        <v>189</v>
+      </c>
+      <c r="B190" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="C189" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D189" s="13" t="s">
+      <c r="C190" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D190" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="E189" s="8" t="s">
+      <c r="E190" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="F189" s="8" t="s">
+      <c r="F190" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="G189" s="8" t="s">
+      <c r="G190" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="H189" s="8"/>
-    </row>
-    <row r="190" spans="1:8">
-      <c r="A190" s="12">
-        <v>189</v>
-      </c>
-      <c r="B190" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C190" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D190" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="E190" s="10"/>
-      <c r="F190" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G190" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H190" s="10"/>
+      <c r="H190" s="8"/>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="11">
         <v>190</v>
       </c>
-      <c r="B191" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C191" s="8"/>
-      <c r="D191" s="13"/>
-      <c r="E191" s="8">
-        <v>2</v>
-      </c>
-      <c r="F191" s="8"/>
-      <c r="G191" s="8"/>
-      <c r="H191" s="8"/>
+      <c r="B191" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D191" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="E191" s="10"/>
+      <c r="F191" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G191" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H191" s="10"/>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="11">
         <v>191</v>
       </c>
-      <c r="B192" s="10" t="s">
+      <c r="B192" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C192" s="8"/>
+      <c r="D192" s="13"/>
+      <c r="E192" s="8">
+        <v>2</v>
+      </c>
+      <c r="F192" s="8"/>
+      <c r="G192" s="8"/>
+      <c r="H192" s="8"/>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="11">
+        <v>192</v>
+      </c>
+      <c r="B193" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C192" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D192" s="15" t="s">
+      <c r="C193" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D193" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="E192" s="10"/>
-      <c r="F192" s="10"/>
-      <c r="G192" s="10"/>
-      <c r="H192" s="10"/>
-    </row>
-    <row r="193" spans="1:8">
-      <c r="A193" s="12">
-        <v>192</v>
-      </c>
-      <c r="B193" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C193" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D193" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="E193" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F193" s="8"/>
-      <c r="G193" s="8"/>
-      <c r="H193" s="8"/>
+      <c r="E193" s="10"/>
+      <c r="F193" s="10"/>
+      <c r="G193" s="10"/>
+      <c r="H193" s="10"/>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="11">
         <v>193</v>
       </c>
-      <c r="B194" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C194" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D194" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="E194" s="10"/>
-      <c r="F194" s="10"/>
-      <c r="G194" s="10"/>
-      <c r="H194" s="10"/>
+      <c r="B194" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D194" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="E194" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F194" s="8"/>
+      <c r="G194" s="8"/>
+      <c r="H194" s="8"/>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="11">
         <v>194</v>
       </c>
-      <c r="B195" s="8" t="s">
+      <c r="B195" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D195" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="E195" s="10"/>
+      <c r="F195" s="10"/>
+      <c r="G195" s="10"/>
+      <c r="H195" s="10"/>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="11">
+        <v>195</v>
+      </c>
+      <c r="B196" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C195" s="8"/>
-      <c r="D195" s="13"/>
-      <c r="E195" s="8">
+      <c r="C196" s="8"/>
+      <c r="D196" s="13"/>
+      <c r="E196" s="8">
         <v>10</v>
       </c>
-      <c r="F195" s="8"/>
-      <c r="G195" s="8"/>
-      <c r="H195" s="8"/>
-    </row>
-    <row r="196" spans="1:8">
-      <c r="A196" s="12">
-        <v>195</v>
-      </c>
-      <c r="B196" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="C196" s="10"/>
-      <c r="D196" s="15"/>
-      <c r="E196" s="10"/>
-      <c r="F196" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="G196" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="H196" s="10"/>
+      <c r="F196" s="8"/>
+      <c r="G196" s="8"/>
+      <c r="H196" s="8"/>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="11">
         <v>196</v>
       </c>
-      <c r="B197" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C197" s="8"/>
-      <c r="D197" s="13"/>
-      <c r="E197" s="8">
-        <v>10</v>
-      </c>
-      <c r="F197" s="8"/>
-      <c r="G197" s="8"/>
-      <c r="H197" s="8"/>
+      <c r="B197" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C197" s="10"/>
+      <c r="D197" s="15"/>
+      <c r="E197" s="10"/>
+      <c r="F197" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="G197" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="H197" s="10"/>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="11">
         <v>197</v>
       </c>
-      <c r="B198" s="10" t="s">
+      <c r="B198" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C198" s="8"/>
+      <c r="D198" s="13"/>
+      <c r="E198" s="8">
+        <v>10</v>
+      </c>
+      <c r="F198" s="8"/>
+      <c r="G198" s="8"/>
+      <c r="H198" s="8"/>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="11">
+        <v>198</v>
+      </c>
+      <c r="B199" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C198" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D198" s="15" t="s">
+      <c r="C199" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D199" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="E198" s="10"/>
-      <c r="F198" s="10" t="s">
+      <c r="E199" s="10"/>
+      <c r="F199" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="G198" s="10" t="s">
+      <c r="G199" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="H198" s="10"/>
-    </row>
-    <row r="199" spans="1:8">
-      <c r="A199" s="12">
-        <v>198</v>
-      </c>
-      <c r="B199" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="C199" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D199" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="E199" s="8"/>
-      <c r="F199" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="G199" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="H199" s="8"/>
+      <c r="H199" s="10"/>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="11">
         <v>199</v>
       </c>
-      <c r="B200" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C200" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D200" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="E200" s="10"/>
-      <c r="F200" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="G200" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="H200" s="10"/>
+      <c r="B200" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D200" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="E200" s="8"/>
+      <c r="F200" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="G200" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="H200" s="8"/>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="11">
         <v>200</v>
       </c>
-      <c r="B201" s="8" t="s">
+      <c r="B201" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D201" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="E201" s="10"/>
+      <c r="F201" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="G201" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="H201" s="10"/>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="11">
+        <v>201</v>
+      </c>
+      <c r="B202" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C201" s="8"/>
-      <c r="D201" s="8"/>
-      <c r="E201" s="8">
+      <c r="C202" s="8"/>
+      <c r="D202" s="8"/>
+      <c r="E202" s="8">
         <v>4</v>
       </c>
-      <c r="F201" s="8"/>
-      <c r="G201" s="8"/>
-      <c r="H201" s="8"/>
+      <c r="F202" s="8"/>
+      <c r="G202" s="8"/>
+      <c r="H202" s="8"/>
     </row>
   </sheetData>
-  <dataValidations count="10">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C153 B154 C154 B155 C155 B4:B17 C7:C9 C14:C17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C154 B155 C155 B156 C156 B4:B17 C7:C9 C14:C17">
       <formula1>[6]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C58 C29:C35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C58 C116 C29:C35">
       <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C78">
@@ -6920,19 +6936,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C93 B102 C102 B80:B101 B103:B114 C80:C81 C91:C92 C94:C97 C98:C101 C103:C108 C109:C114">
       <formula1>[7]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C116">
-      <formula1>[3]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B134 B135 B153 C169 B170 C170 C172 B1:B3 B18:B38 B39:B79 B117:B132 B137:B152 B156:B169 B171:B173 B200:B201 C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B124 B135 B136 B154 C170 B171 C171 C173 B1:B3 B18:B38 B39:B79 B117:B123 B125:B133 B138:B153 B157:B170 B172:B174 B201:B202 C2:C3">
       <formula1/>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C171 C18:C28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C172 C18:C28">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B115:B116">
       <formula1>[8]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B174:B177 B178:B199">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B175:B178 B179:B200">
       <formula1>[5]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_Provider.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_Provider.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27465" windowHeight="13230"/>
+    <workbookView windowWidth="28680" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458">
   <si>
     <t>Step No</t>
   </si>
@@ -792,45 +792,6 @@
   </si>
   <si>
     <t>Diagnosis date selected</t>
-  </si>
-  <si>
-    <t>MEDICATION_NAME</t>
-  </si>
-  <si>
-    <t>Type Medication name</t>
-  </si>
-  <si>
-    <t>Medication name entered</t>
-  </si>
-  <si>
-    <t>Select Medication name</t>
-  </si>
-  <si>
-    <t>Medication name selected</t>
-  </si>
-  <si>
-    <t>DOSAGE</t>
-  </si>
-  <si>
-    <t>TestDosage</t>
-  </si>
-  <si>
-    <t>Enter Dosage</t>
-  </si>
-  <si>
-    <t>Dosage entered</t>
-  </si>
-  <si>
-    <t>FREQUENCY</t>
-  </si>
-  <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t>Enter frequency</t>
-  </si>
-  <si>
-    <t>Frequency entered</t>
   </si>
   <si>
     <t>SELF_LASTPAGE</t>
@@ -1455,8 +1416,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1483,8 +1444,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1498,31 +1506,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1536,6 +1543,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1543,54 +1558,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1604,26 +1573,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1648,13 +1609,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1666,43 +1633,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1720,19 +1657,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1744,13 +1681,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1762,13 +1699,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1786,7 +1741,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1798,13 +1753,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1817,6 +1766,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1881,41 +1842,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1949,8 +1875,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1978,10 +1928,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1999,130 +1960,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2593,10 +2554,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119:A195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -5165,7 +5126,7 @@
       <c r="H119" s="8"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="7">
+      <c r="A120" s="8">
         <v>119</v>
       </c>
       <c r="B120" s="7" t="s">
@@ -5190,1626 +5151,1520 @@
       <c r="A121" s="8">
         <v>120</v>
       </c>
-      <c r="B121" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="G121" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="H121" s="8"/>
+      <c r="B121" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H121" s="7"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="7">
+      <c r="A122" s="8">
         <v>121</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7">
-        <v>5</v>
-      </c>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="7"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8">
+        <v>4</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H122" s="8"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="8">
         <v>122</v>
       </c>
-      <c r="B123" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="G123" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="H123" s="8"/>
+      <c r="B123" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H123" s="7"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="7">
+      <c r="A124" s="8">
         <v>123</v>
       </c>
-      <c r="B124" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H124" s="7"/>
+      <c r="B124" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8">
+        <v>1</v>
+      </c>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="8">
         <v>124</v>
       </c>
-      <c r="B125" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="G125" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="H125" s="8"/>
+      <c r="B125" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="7">
+      <c r="A126" s="8">
         <v>125</v>
       </c>
-      <c r="B126" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G126" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H126" s="7"/>
+      <c r="B126" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8">
+        <v>1</v>
+      </c>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="8">
         <v>126</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B127" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H127" s="7"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="8">
+        <v>127</v>
+      </c>
+      <c r="B128" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8">
-        <v>4</v>
-      </c>
-      <c r="F127" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G127" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H127" s="8"/>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="7">
-        <v>127</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="H128" s="7"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8">
+        <v>3</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="H128" s="8"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="8">
         <v>128</v>
       </c>
-      <c r="B129" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8">
-        <v>1</v>
-      </c>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="8"/>
+      <c r="B129" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H129" s="7"/>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="7">
+      <c r="A130" s="8">
         <v>129</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B130" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C130" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="7"/>
+      <c r="C130" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="H130" s="8"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="8">
         <v>130</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8">
-        <v>1</v>
-      </c>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="8"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7">
+        <v>2</v>
+      </c>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="7">
+      <c r="A132" s="8">
         <v>131</v>
       </c>
-      <c r="B132" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D132" s="7" t="s">
+      <c r="B132" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="F132" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7" t="s">
+      <c r="G132" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G132" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="H132" s="7"/>
+      <c r="H132" s="8"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="8">
         <v>132</v>
       </c>
-      <c r="B133" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8">
-        <v>3</v>
-      </c>
-      <c r="F133" s="8" t="s">
+      <c r="B133" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F133" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="G133" s="8" t="s">
+      <c r="G133" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="H133" s="8"/>
+      <c r="H133" s="7"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="7">
+      <c r="A134" s="8">
         <v>133</v>
       </c>
-      <c r="B134" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G134" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H134" s="7"/>
+      <c r="B134" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E134" s="8">
+        <v>9889656446</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H134" s="8"/>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="8">
         <v>134</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="B135" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C135" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="G135" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="H135" s="8"/>
+      <c r="C135" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H135" s="7"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="7">
+      <c r="A136" s="8">
         <v>135</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B136" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7">
-        <v>2</v>
-      </c>
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="7"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8">
+        <v>4</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H136" s="8"/>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="8">
         <v>136</v>
       </c>
-      <c r="B137" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D137" s="8" t="s">
+      <c r="B137" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G137" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="E137" s="8" t="s">
+      <c r="H137" s="7"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="8">
+        <v>137</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="F137" s="8" t="s">
+      <c r="E138" s="8"/>
+      <c r="F138" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="G137" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="H137" s="8"/>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" s="7">
-        <v>137</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="E138" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F138" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="H138" s="7"/>
+      <c r="G138" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="H138" s="8"/>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="8">
         <v>138</v>
       </c>
-      <c r="B139" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E139" s="8">
-        <v>9889656446</v>
-      </c>
-      <c r="F139" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="G139" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="H139" s="8"/>
+      <c r="B139" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H139" s="7"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="7">
+      <c r="A140" s="8">
         <v>139</v>
       </c>
-      <c r="B140" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G140" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H140" s="7"/>
+      <c r="B140" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="H140" s="8"/>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="8">
         <v>140</v>
       </c>
-      <c r="B141" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8">
-        <v>4</v>
-      </c>
-      <c r="F141" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G141" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H141" s="8"/>
+      <c r="B141" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H141" s="7"/>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="7">
+      <c r="A142" s="8">
         <v>141</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B142" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C142" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G142" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H142" s="7"/>
+      <c r="G142" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="H142" s="8"/>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="8">
         <v>142</v>
       </c>
-      <c r="B143" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D143" s="8" t="s">
+      <c r="B143" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H143" s="7"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="8">
+        <v>143</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="G143" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="H143" s="8"/>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" s="7">
-        <v>143</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G144" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H144" s="7"/>
+      <c r="G144" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="H144" s="8"/>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="8">
         <v>144</v>
       </c>
-      <c r="B145" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="G145" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="H145" s="8"/>
+      <c r="B145" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H145" s="7"/>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="7">
+      <c r="A146" s="8">
         <v>145</v>
       </c>
-      <c r="B146" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="E146" s="7"/>
-      <c r="F146" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G146" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H146" s="7"/>
+      <c r="B146" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8">
+        <v>5</v>
+      </c>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="8">
         <v>146</v>
       </c>
-      <c r="B147" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="E147" s="8"/>
-      <c r="F147" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="G147" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="H147" s="8"/>
+      <c r="B147" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H147" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="7">
+      <c r="A148" s="8">
         <v>147</v>
       </c>
-      <c r="B148" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G148" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H148" s="7"/>
+      <c r="B148" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G148" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H148" s="8"/>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="8">
         <v>148</v>
       </c>
-      <c r="B149" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D149" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="E149" s="8"/>
-      <c r="F149" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="G149" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="H149" s="8"/>
+      <c r="B149" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7">
+        <v>5</v>
+      </c>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="7">
+      <c r="A150" s="8">
         <v>149</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="B150" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C150" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G150" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H150" s="7"/>
+      <c r="C150" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G150" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="H150" s="8"/>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="8">
         <v>150</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="B151" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H151" s="7"/>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="8">
+        <v>151</v>
+      </c>
+      <c r="B152" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
-      <c r="E151" s="8">
-        <v>5</v>
-      </c>
-      <c r="F151" s="8"/>
-      <c r="G151" s="8"/>
-      <c r="H151" s="8"/>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="A152" s="7">
-        <v>151</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E152" s="7"/>
-      <c r="F152" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G152" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H152" s="7">
-        <v>3</v>
-      </c>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8">
+        <v>20</v>
+      </c>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="8">
         <v>152</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B153" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C153" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D153" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G153" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H153" s="8"/>
+      <c r="C153" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H153" s="7"/>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="7">
+      <c r="A154" s="8">
         <v>153</v>
       </c>
-      <c r="B154" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C154" s="7"/>
-      <c r="D154" s="7"/>
-      <c r="E154" s="7">
-        <v>5</v>
-      </c>
-      <c r="F154" s="7"/>
-      <c r="G154" s="7"/>
-      <c r="H154" s="7"/>
+      <c r="B154" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G154" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="H154" s="8"/>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="8">
         <v>154</v>
       </c>
-      <c r="B155" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D155" s="8" t="s">
+      <c r="B155" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D155" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8" t="s">
+      <c r="E155" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="G155" s="8" t="s">
+      <c r="F155" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H155" s="8"/>
+      <c r="G155" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H155" s="7"/>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="7">
+      <c r="A156" s="8">
         <v>155</v>
       </c>
-      <c r="B156" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E156" s="7"/>
-      <c r="F156" s="7" t="s">
+      <c r="B156" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="G156" s="7" t="s">
+      <c r="C156" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D156" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="H156" s="7"/>
+      <c r="E156" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="G156" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="H156" s="8"/>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="8">
         <v>156</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H157" s="7"/>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="8">
+        <v>157</v>
+      </c>
+      <c r="B158" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C157" s="8"/>
-      <c r="D157" s="8"/>
-      <c r="E157" s="8">
-        <v>20</v>
-      </c>
-      <c r="F157" s="8"/>
-      <c r="G157" s="8"/>
-      <c r="H157" s="8"/>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="A158" s="7">
-        <v>157</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D158" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="E158" s="7"/>
-      <c r="F158" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G158" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="H158" s="7"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8">
+        <v>20</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G158" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H158" s="8"/>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="8">
         <v>158</v>
       </c>
-      <c r="B159" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D159" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="E159" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="F159" s="8" t="s">
+      <c r="B159" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="G159" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="H159" s="8"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="7">
+      <c r="A160" s="8">
         <v>159</v>
       </c>
-      <c r="B160" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="E160" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F160" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G160" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H160" s="7"/>
+      <c r="B160" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="8">
+        <v>10</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G160" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H160" s="8"/>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="8">
         <v>160</v>
       </c>
-      <c r="B161" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="E161" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="F161" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="G161" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="H161" s="8"/>
+      <c r="B161" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G161" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H161" s="7"/>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="7">
+      <c r="A162" s="8">
         <v>161</v>
       </c>
-      <c r="B162" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E162" s="7"/>
-      <c r="F162" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G162" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H162" s="7"/>
+      <c r="B162" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" s="8"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8">
+        <v>5</v>
+      </c>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
+      <c r="H162" s="8"/>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="8">
         <v>162</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="B163" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="8">
+        <v>163</v>
+      </c>
+      <c r="B164" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="8">
-        <v>20</v>
-      </c>
-      <c r="F163" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G163" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H163" s="8"/>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="A164" s="7">
-        <v>163</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="C164" s="7"/>
-      <c r="D164" s="7"/>
-      <c r="E164" s="7"/>
-      <c r="F164" s="7"/>
-      <c r="G164" s="7"/>
-      <c r="H164" s="7"/>
+      <c r="C164" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8">
+        <v>1</v>
+      </c>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
+      <c r="H164" s="8"/>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="8">
         <v>164</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B165" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E165" s="7"/>
+      <c r="F165" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G165" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H165" s="7"/>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="8">
+        <v>165</v>
+      </c>
+      <c r="B166" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
-      <c r="E165" s="8">
-        <v>10</v>
-      </c>
-      <c r="F165" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G165" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H165" s="8"/>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" s="7">
-        <v>165</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D166" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="E166" s="7"/>
-      <c r="F166" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G166" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="H166" s="7"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8">
+        <v>5</v>
+      </c>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
+      <c r="H166" s="8"/>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="8">
         <v>166</v>
       </c>
-      <c r="B167" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C167" s="8"/>
-      <c r="D167" s="8"/>
-      <c r="E167" s="8">
-        <v>5</v>
-      </c>
-      <c r="F167" s="8"/>
-      <c r="G167" s="8"/>
-      <c r="H167" s="8"/>
+      <c r="B167" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E167" s="7"/>
+      <c r="F167" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G167" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H167" s="7"/>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="7">
+      <c r="A168" s="8">
         <v>167</v>
       </c>
-      <c r="B168" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C168" s="7" t="s">
+      <c r="B168" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D168" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="E168" s="7"/>
-      <c r="F168" s="7"/>
-      <c r="G168" s="7"/>
-      <c r="H168" s="7">
-        <v>3</v>
-      </c>
+      <c r="D168" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="G168" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="H168" s="8"/>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="8">
         <v>168</v>
       </c>
-      <c r="B169" s="8" t="s">
+      <c r="B169" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C169" s="8"/>
-      <c r="D169" s="8"/>
-      <c r="E169" s="8">
-        <v>1</v>
-      </c>
-      <c r="F169" s="8"/>
-      <c r="G169" s="8"/>
-      <c r="H169" s="8"/>
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="7">
+        <v>5</v>
+      </c>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
+      <c r="H169" s="7"/>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="7">
+      <c r="A170" s="8">
         <v>169</v>
       </c>
-      <c r="B170" s="7" t="s">
+      <c r="B170" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C170" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D170" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E170" s="7"/>
-      <c r="F170" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G170" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H170" s="7"/>
+      <c r="C170" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="E170" s="8"/>
+      <c r="F170" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="G170" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="H170" s="8"/>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="8">
         <v>170</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B171" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C171" s="8"/>
-      <c r="D171" s="8"/>
-      <c r="E171" s="8">
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7">
         <v>5</v>
       </c>
-      <c r="F171" s="8"/>
-      <c r="G171" s="8"/>
-      <c r="H171" s="8"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="7"/>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="7">
+      <c r="A172" s="8">
         <v>171</v>
       </c>
-      <c r="B172" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D172" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="E172" s="7"/>
-      <c r="F172" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G172" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H172" s="7"/>
+      <c r="B172" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="E172" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F172" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="G172" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="H172" s="8"/>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="8">
         <v>172</v>
       </c>
-      <c r="B173" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C173" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D173" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="E173" s="8"/>
-      <c r="F173" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G173" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="H173" s="8"/>
+      <c r="B173" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="7">
+        <v>5</v>
+      </c>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7"/>
+      <c r="H173" s="7"/>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="7">
+      <c r="A174" s="8">
         <v>173</v>
       </c>
-      <c r="B174" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C174" s="7"/>
-      <c r="D174" s="7"/>
-      <c r="E174" s="7">
-        <v>5</v>
-      </c>
-      <c r="F174" s="7"/>
-      <c r="G174" s="7"/>
-      <c r="H174" s="7"/>
+      <c r="B174" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C174" s="8"/>
+      <c r="D174" s="8"/>
+      <c r="E174" s="8"/>
+      <c r="F174" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="G174" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="H174" s="8"/>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="8">
         <v>174</v>
       </c>
-      <c r="B175" s="8" t="s">
+      <c r="B175" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C175" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D175" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="E175" s="8"/>
-      <c r="F175" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="G175" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="H175" s="8"/>
+      <c r="C175" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E175" s="7"/>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7"/>
+      <c r="H175" s="7"/>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="7">
+      <c r="A176" s="8">
         <v>175</v>
       </c>
-      <c r="B176" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C176" s="7"/>
-      <c r="D176" s="7"/>
-      <c r="E176" s="7">
-        <v>5</v>
-      </c>
-      <c r="F176" s="7"/>
-      <c r="G176" s="7"/>
-      <c r="H176" s="7"/>
+      <c r="B176" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="E176" s="8"/>
+      <c r="F176" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G176" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H176" s="8"/>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="8">
         <v>176</v>
       </c>
-      <c r="B177" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C177" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D177" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="E177" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="F177" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="G177" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="H177" s="8"/>
+      <c r="B177" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E177" s="7"/>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7"/>
+      <c r="H177" s="7"/>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="7">
+      <c r="A178" s="8">
         <v>177</v>
       </c>
-      <c r="B178" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C178" s="7"/>
-      <c r="D178" s="7"/>
-      <c r="E178" s="7">
-        <v>5</v>
-      </c>
-      <c r="F178" s="7"/>
-      <c r="G178" s="7"/>
-      <c r="H178" s="7"/>
+      <c r="B178" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="E178" s="8"/>
+      <c r="F178" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G178" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H178" s="8"/>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="8">
         <v>178</v>
       </c>
-      <c r="B179" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C179" s="8"/>
-      <c r="D179" s="8"/>
-      <c r="E179" s="8"/>
-      <c r="F179" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="G179" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="H179" s="8"/>
+      <c r="B179" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E179" s="7">
+        <v>200</v>
+      </c>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
+      <c r="H179" s="7"/>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="7">
+      <c r="A180" s="8">
         <v>179</v>
       </c>
-      <c r="B180" s="7" t="s">
+      <c r="B180" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C180" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D180" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="E180" s="7"/>
-      <c r="F180" s="7"/>
-      <c r="G180" s="7"/>
-      <c r="H180" s="7"/>
+      <c r="C180" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="E180" s="8"/>
+      <c r="F180" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G180" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H180" s="8"/>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="8">
         <v>180</v>
       </c>
-      <c r="B181" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C181" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D181" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E181" s="8"/>
-      <c r="F181" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="G181" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="H181" s="8"/>
+      <c r="B181" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="7">
+        <v>3</v>
+      </c>
+      <c r="F181" s="7"/>
+      <c r="G181" s="7"/>
+      <c r="H181" s="7"/>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="7">
+      <c r="A182" s="8">
         <v>181</v>
       </c>
-      <c r="B182" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D182" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="E182" s="7"/>
-      <c r="F182" s="7"/>
-      <c r="G182" s="7"/>
-      <c r="H182" s="7"/>
+      <c r="B182" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F182" s="8"/>
+      <c r="G182" s="8"/>
+      <c r="H182" s="8"/>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="8">
         <v>182</v>
       </c>
-      <c r="B183" s="8" t="s">
+      <c r="B183" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F183" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G183" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H183" s="7"/>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="8">
+        <v>183</v>
+      </c>
+      <c r="B184" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C183" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D183" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="E183" s="8"/>
-      <c r="F183" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="G183" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="H183" s="8"/>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="A184" s="7">
-        <v>183</v>
-      </c>
-      <c r="B184" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D184" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="E184" s="7">
-        <v>200</v>
-      </c>
-      <c r="F184" s="7"/>
-      <c r="G184" s="7"/>
-      <c r="H184" s="7"/>
+      <c r="C184" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="E184" s="8"/>
+      <c r="F184" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G184" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H184" s="8"/>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="8">
         <v>184</v>
       </c>
-      <c r="B185" s="8" t="s">
+      <c r="B185" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185" s="7"/>
+      <c r="D185" s="7"/>
+      <c r="E185" s="7">
+        <v>2</v>
+      </c>
+      <c r="F185" s="7"/>
+      <c r="G185" s="7"/>
+      <c r="H185" s="7"/>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="8">
+        <v>185</v>
+      </c>
+      <c r="B186" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C185" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D185" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="E185" s="8"/>
-      <c r="F185" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G185" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H185" s="8"/>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="A186" s="7">
-        <v>185</v>
-      </c>
-      <c r="B186" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C186" s="7"/>
-      <c r="D186" s="7"/>
-      <c r="E186" s="7">
-        <v>3</v>
-      </c>
-      <c r="F186" s="7"/>
-      <c r="G186" s="7"/>
-      <c r="H186" s="7"/>
+      <c r="C186" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D186" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="E186" s="8"/>
+      <c r="F186" s="8"/>
+      <c r="G186" s="8"/>
+      <c r="H186" s="8"/>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="8">
         <v>186</v>
       </c>
-      <c r="B187" s="8" t="s">
+      <c r="B187" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C187" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D187" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="E187" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="F187" s="8"/>
-      <c r="G187" s="8"/>
-      <c r="H187" s="8"/>
+      <c r="C187" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F187" s="7"/>
+      <c r="G187" s="7"/>
+      <c r="H187" s="7"/>
     </row>
     <row r="188" spans="1:8">
-      <c r="A188" s="7">
+      <c r="A188" s="8">
         <v>187</v>
       </c>
-      <c r="B188" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D188" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="E188" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="F188" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G188" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H188" s="7"/>
+      <c r="B188" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D188" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="E188" s="8"/>
+      <c r="F188" s="8"/>
+      <c r="G188" s="8"/>
+      <c r="H188" s="8"/>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="8">
         <v>188</v>
       </c>
-      <c r="B189" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C189" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D189" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="E189" s="8"/>
-      <c r="F189" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G189" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H189" s="8"/>
+      <c r="B189" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="7">
+        <v>10</v>
+      </c>
+      <c r="F189" s="7"/>
+      <c r="G189" s="7"/>
+      <c r="H189" s="7"/>
     </row>
     <row r="190" spans="1:8">
-      <c r="A190" s="7">
+      <c r="A190" s="8">
         <v>189</v>
       </c>
-      <c r="B190" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C190" s="7"/>
-      <c r="D190" s="7"/>
-      <c r="E190" s="7">
-        <v>2</v>
-      </c>
-      <c r="F190" s="7"/>
-      <c r="G190" s="7"/>
-      <c r="H190" s="7"/>
+      <c r="B190" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C190" s="8"/>
+      <c r="D190" s="8"/>
+      <c r="E190" s="8"/>
+      <c r="F190" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="G190" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="H190" s="8"/>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="8">
         <v>190</v>
       </c>
-      <c r="B191" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C191" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D191" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="E191" s="8"/>
-      <c r="F191" s="8"/>
-      <c r="G191" s="8"/>
-      <c r="H191" s="8"/>
+      <c r="B191" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
+      <c r="E191" s="7">
+        <v>10</v>
+      </c>
+      <c r="F191" s="7"/>
+      <c r="G191" s="7"/>
+      <c r="H191" s="7"/>
     </row>
     <row r="192" spans="1:8">
-      <c r="A192" s="7">
+      <c r="A192" s="8">
         <v>191</v>
       </c>
-      <c r="B192" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D192" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="E192" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F192" s="7"/>
-      <c r="G192" s="7"/>
-      <c r="H192" s="7"/>
+      <c r="B192" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="E192" s="8"/>
+      <c r="F192" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G192" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="H192" s="8"/>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="8">
         <v>192</v>
       </c>
-      <c r="B193" s="8" t="s">
+      <c r="B193" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E193" s="7"/>
+      <c r="F193" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G193" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H193" s="7"/>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="8">
+        <v>193</v>
+      </c>
+      <c r="B194" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C193" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D193" s="8" t="s">
+      <c r="C194" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="E194" s="8"/>
+      <c r="F194" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="G194" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="E193" s="8"/>
-      <c r="F193" s="8"/>
-      <c r="G193" s="8"/>
-      <c r="H193" s="8"/>
-    </row>
-    <row r="194" spans="1:8">
-      <c r="A194" s="7">
-        <v>193</v>
-      </c>
-      <c r="B194" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C194" s="7"/>
-      <c r="D194" s="7"/>
-      <c r="E194" s="7">
-        <v>10</v>
-      </c>
-      <c r="F194" s="7"/>
-      <c r="G194" s="7"/>
-      <c r="H194" s="7"/>
+      <c r="H194" s="8"/>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="8">
         <v>194</v>
       </c>
-      <c r="B195" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C195" s="8"/>
-      <c r="D195" s="8"/>
-      <c r="E195" s="8"/>
-      <c r="F195" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="G195" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="H195" s="8"/>
-    </row>
-    <row r="196" spans="1:8">
-      <c r="A196" s="7">
-        <v>195</v>
-      </c>
-      <c r="B196" s="7" t="s">
+      <c r="B195" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C196" s="7"/>
-      <c r="D196" s="7"/>
-      <c r="E196" s="7">
-        <v>10</v>
-      </c>
-      <c r="F196" s="7"/>
-      <c r="G196" s="7"/>
-      <c r="H196" s="7"/>
-    </row>
-    <row r="197" spans="1:8">
-      <c r="A197" s="8">
-        <v>196</v>
-      </c>
-      <c r="B197" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C197" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="E197" s="8"/>
-      <c r="F197" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="G197" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="H197" s="8"/>
-    </row>
-    <row r="198" spans="1:8">
-      <c r="A198" s="7">
-        <v>197</v>
-      </c>
-      <c r="B198" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="C198" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D198" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="E198" s="7"/>
-      <c r="F198" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G198" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="H198" s="7"/>
-    </row>
-    <row r="199" spans="1:8">
-      <c r="A199" s="8">
-        <v>198</v>
-      </c>
-      <c r="B199" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C199" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D199" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="E199" s="8"/>
-      <c r="F199" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="G199" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="H199" s="8"/>
-    </row>
-    <row r="200" spans="1:8">
-      <c r="A200" s="7">
-        <v>199</v>
-      </c>
-      <c r="B200" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C200" s="7"/>
-      <c r="D200" s="7"/>
-      <c r="E200" s="7">
+      <c r="C195" s="7"/>
+      <c r="D195" s="7"/>
+      <c r="E195" s="7">
         <v>4</v>
       </c>
-      <c r="F200" s="7"/>
-      <c r="G200" s="7"/>
-      <c r="H200" s="7"/>
+      <c r="F195" s="7"/>
+      <c r="G195" s="7"/>
+      <c r="H195" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C152 B153 C153 B154 C154 B4:B13 B14:B15 C7:C9 C14:C15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C147 B148 C148 B149 C149 B4:B13 B14:B15 C7:C9 C14:C15">
       <formula1>[6]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C44 C56 C114 C27:C33">
@@ -6821,16 +6676,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C91 B100 C100 B78:B99 B101:B112 C78:C79 C89:C90 C92:C95 C96:C99 C101:C106 C107:C112">
       <formula1>[7]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B122 B133 B134 B152 C168 B169 C169 C171 B1:B3 B16:B36 B37:B77 B115:B121 B123:B131 B136:B151 B155:B168 B170:B172 B199:B200 C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B128 B129 B147 C163 B164 C164 C166 B1:B3 B16:B36 B37:B77 B115:B120 B121:B126 B131:B146 B150:B163 B165:B167 B194:B195 C2:C3">
       <formula1/>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C170 C16:C26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C165 C16:C26">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B113:B114">
       <formula1>[8]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B173:B176 B177:B198">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B168:B171 B172:B193">
       <formula1>[5]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -6861,7 +6716,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6869,20 +6724,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="C3" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -6893,20 +6748,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="C6" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -6914,47 +6769,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="C8" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="C10" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="C11" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -6964,12 +6819,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -6979,55 +6834,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -7037,152 +6892,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -7192,204 +7047,204 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -7404,12 +7259,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_Provider.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_Provider.xlsx
@@ -18,7 +18,6 @@
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402">
   <si>
     <t>Step No</t>
   </si>
@@ -149,87 +148,81 @@
     <t>SEARCH_PATIENT_NEW</t>
   </si>
   <si>
-    <t>Click on search button</t>
-  </si>
-  <si>
     <t>CREATE_APP_LINK</t>
   </si>
   <si>
-    <t>Click on create application</t>
+    <t>SelectByVisibleText</t>
+  </si>
+  <si>
+    <t>PATIENT_FUND_NAME</t>
+  </si>
+  <si>
+    <t>Breast Cancer Silo*</t>
+  </si>
+  <si>
+    <t>Enter fund name</t>
+  </si>
+  <si>
+    <t>Fund name entered</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>NUM_OF_PEOPLE</t>
+  </si>
+  <si>
+    <t>Enter no of peoples</t>
+  </si>
+  <si>
+    <t>No of Peoples entered</t>
+  </si>
+  <si>
+    <t>HOUSEHOLD_INCOME</t>
+  </si>
+  <si>
+    <t>Enter household income</t>
+  </si>
+  <si>
+    <t>House income entered</t>
+  </si>
+  <si>
+    <t>DIAGNOSIS_LABEL1_YES</t>
+  </si>
+  <si>
+    <t>Click Yes</t>
+  </si>
+  <si>
+    <t>Clicked Yes</t>
+  </si>
+  <si>
+    <t>TREATMENT_LEBEL_YES</t>
+  </si>
+  <si>
+    <t>TERRITORY_LEBEL_YES</t>
+  </si>
+  <si>
+    <t>REG_ZIP_CODE</t>
+  </si>
+  <si>
+    <t>Enter Zipcode</t>
+  </si>
+  <si>
+    <t>Zipcode entered</t>
+  </si>
+  <si>
+    <t>SUBMIT_BUTTON</t>
+  </si>
+  <si>
+    <t>Click Submit</t>
+  </si>
+  <si>
+    <t>Submitted button clicked</t>
   </si>
   <si>
     <t>Wait for page to load</t>
   </si>
   <si>
-    <t>SelectByVisibleText</t>
-  </si>
-  <si>
-    <t>PATIENT_FUND_NAME</t>
-  </si>
-  <si>
-    <t>Breast Cancer Silo*</t>
-  </si>
-  <si>
-    <t>Enter fund name</t>
-  </si>
-  <si>
-    <t>Fund name entered</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>NUM_OF_PEOPLE</t>
-  </si>
-  <si>
-    <t>Enter no of peoples</t>
-  </si>
-  <si>
-    <t>No of Peoples entered</t>
-  </si>
-  <si>
-    <t>HOUSEHOLD_INCOME</t>
-  </si>
-  <si>
-    <t>Enter household income</t>
-  </si>
-  <si>
-    <t>House income entered</t>
-  </si>
-  <si>
-    <t>DIAGNOSIS_LABEL1_YES</t>
-  </si>
-  <si>
-    <t>Click Yes</t>
-  </si>
-  <si>
-    <t>Clicked Yes</t>
-  </si>
-  <si>
-    <t>TREATMENT_LEBEL_YES</t>
-  </si>
-  <si>
-    <t>TERRITORY_LEBEL_YES</t>
-  </si>
-  <si>
-    <t>REG_ZIP_CODE</t>
-  </si>
-  <si>
-    <t>Enter Zipcode</t>
-  </si>
-  <si>
-    <t>Zipcode entered</t>
-  </si>
-  <si>
-    <t>SUBMIT_BUTTON</t>
-  </si>
-  <si>
-    <t>Click Submit</t>
-  </si>
-  <si>
-    <t>Submitted button clicked</t>
-  </si>
-  <si>
     <t>TypeDynamicValue</t>
   </si>
   <si>
@@ -326,15 +319,21 @@
     <t>CONTACT_ADDRESS_LINE1</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>Enter Add1</t>
   </si>
   <si>
     <t>add 1 entered</t>
   </si>
   <si>
+    <t>CONTACT_ADDRESS_LINE2</t>
+  </si>
+  <si>
+    <t>Enter Add2</t>
+  </si>
+  <si>
+    <t>add 2 entered</t>
+  </si>
+  <si>
     <t>CONTACT_STATE</t>
   </si>
   <si>
@@ -395,7 +394,7 @@
     <t>APP_AUTHORIZE_FNAME</t>
   </si>
   <si>
-    <t>F</t>
+    <t>TestingBab</t>
   </si>
   <si>
     <t>Enter First  name</t>
@@ -404,7 +403,7 @@
     <t>APP_AUTHORIZE_LNAME</t>
   </si>
   <si>
-    <t>L</t>
+    <t>bab</t>
   </si>
   <si>
     <t>Enter Last name</t>
@@ -512,9 +511,6 @@
     <t>APP_INS_NUMBER</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Enter Policy number</t>
   </si>
   <si>
@@ -932,475 +928,310 @@
     <t>Return home clicked</t>
   </si>
   <si>
-    <t>HOME_ACTIONS</t>
-  </si>
-  <si>
-    <t>Click on Actions</t>
-  </si>
-  <si>
-    <t>Actions clicked</t>
-  </si>
-  <si>
-    <t>ACTION_PROVIDER_UPLOAD_DOCS</t>
-  </si>
-  <si>
-    <t>Click on View Correspondence/Upload Document</t>
-  </si>
-  <si>
-    <t>Clicked View Correspondence/Upload Document</t>
-  </si>
-  <si>
-    <t>UPLOAD_DOCUMENTS_BUTTON</t>
-  </si>
-  <si>
-    <t>Click on Upload button</t>
-  </si>
-  <si>
-    <t>Uplod document button clicked</t>
-  </si>
-  <si>
-    <t>UDPLOAD_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>_Desc</t>
-  </si>
-  <si>
-    <t>Type Description</t>
-  </si>
-  <si>
-    <t>Description entered</t>
-  </si>
-  <si>
-    <t>UPLOAD_SELECT_CATEGORY</t>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>Select File</t>
-  </si>
-  <si>
-    <t>File selected</t>
+    <t>PATIENT_LOGOUT</t>
+  </si>
+  <si>
+    <t>Click on logout</t>
+  </si>
+  <si>
+    <t>Logout successfully</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>GetUrl</t>
+  </si>
+  <si>
+    <t>ByName</t>
+  </si>
+  <si>
+    <t>NavigateToURL</t>
+  </si>
+  <si>
+    <t>ByOrName</t>
+  </si>
+  <si>
+    <t>WaitTime</t>
+  </si>
+  <si>
+    <t>ByLinkText</t>
+  </si>
+  <si>
+    <t>Maximize</t>
+  </si>
+  <si>
+    <t>ByTagName</t>
+  </si>
+  <si>
+    <t>ByClassName</t>
+  </si>
+  <si>
+    <t>ActionClick</t>
+  </si>
+  <si>
+    <t>ByCssSelector</t>
+  </si>
+  <si>
+    <t>JsClick</t>
+  </si>
+  <si>
+    <t>Normal Xpath</t>
+  </si>
+  <si>
+    <t>ByPartialLinkText</t>
+  </si>
+  <si>
+    <t>DoubleClick</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>ClickAt</t>
+  </si>
+  <si>
+    <t>ClickAndHold</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>ClearAndType</t>
+  </si>
+  <si>
+    <t>ActionType</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>MouseOver</t>
+  </si>
+  <si>
+    <t>MouseOverAndClick</t>
+  </si>
+  <si>
+    <t>GetAttribute</t>
+  </si>
+  <si>
+    <t>GetCount</t>
+  </si>
+  <si>
+    <t>GetCurrentURL</t>
+  </si>
+  <si>
+    <t>SelectCheckBox</t>
+  </si>
+  <si>
+    <t>SelectByIndex</t>
+  </si>
+  <si>
+    <t>SelectByValue</t>
+  </si>
+  <si>
+    <t>DeSelectCheckBox</t>
+  </si>
+  <si>
+    <t>DeSelectByIndex</t>
+  </si>
+  <si>
+    <t>DeSelectByValue</t>
+  </si>
+  <si>
+    <t>DeSelectByVisibleText</t>
+  </si>
+  <si>
+    <t>SwitchFrameByName</t>
+  </si>
+  <si>
+    <t>SwitchFrameByIndex</t>
+  </si>
+  <si>
+    <t>SwitchFrameByXpath</t>
+  </si>
+  <si>
+    <t>SwitchFrame</t>
+  </si>
+  <si>
+    <t>SwitchToDefaultFrame</t>
+  </si>
+  <si>
+    <t>Refresh</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>AlertOk</t>
+  </si>
+  <si>
+    <t>DismissAlert</t>
+  </si>
+  <si>
+    <t>AlertDismiss</t>
+  </si>
+  <si>
+    <t>PromptBox</t>
+  </si>
+  <si>
+    <t>GenerateAlert</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>GetWindowHandle</t>
+  </si>
+  <si>
+    <t>SwitchToDefaultWindow</t>
+  </si>
+  <si>
+    <t>SwitchToDefaultContent</t>
+  </si>
+  <si>
+    <t>GetAutoIt</t>
+  </si>
+  <si>
+    <t>ScrollDown</t>
+  </si>
+  <si>
+    <t>ScrollUp</t>
+  </si>
+  <si>
+    <t>ScrollBottom</t>
+  </si>
+  <si>
+    <t>KeyboardPageUp</t>
+  </si>
+  <si>
+    <t>KeyboardPageDown</t>
+  </si>
+  <si>
+    <t>KeyboardEnd</t>
+  </si>
+  <si>
+    <t>KeyboardTab</t>
+  </si>
+  <si>
+    <t>PageMaximize</t>
+  </si>
+  <si>
+    <t>KeyboardArrowUp</t>
+  </si>
+  <si>
+    <t>KeyboardArrowDown</t>
+  </si>
+  <si>
+    <t>KeyboardArrowLeft</t>
+  </si>
+  <si>
+    <t>KeyboardArrowRight</t>
+  </si>
+  <si>
+    <t>Drag</t>
+  </si>
+  <si>
+    <t>Drop</t>
+  </si>
+  <si>
+    <t>VerifyElementIsSelected</t>
+  </si>
+  <si>
+    <t>VerifyElementIsPresent</t>
+  </si>
+  <si>
+    <t>VerifyElementIsNotPresent</t>
+  </si>
+  <si>
+    <t>VerifyElementIsEnable</t>
+  </si>
+  <si>
+    <t>WaitUntilVisibilityOfElement</t>
+  </si>
+  <si>
+    <t>WaitUntilInvisibilityOfElement</t>
+  </si>
+  <si>
+    <t>VerifyTextIsPresent</t>
+  </si>
+  <si>
+    <t>WaitUntilTextToBeNotPresent</t>
+  </si>
+  <si>
+    <t>WaitUntilTextToBePresent</t>
+  </si>
+  <si>
+    <t>WaitUntilElementToBeClickable</t>
+  </si>
+  <si>
+    <t>WaitUntilElementToBeSelected</t>
+  </si>
+  <si>
+    <t>TextToBePresentInElementValue</t>
+  </si>
+  <si>
+    <t>WaitForElementPresent</t>
+  </si>
+  <si>
+    <t>WaitForElementNotPresent</t>
+  </si>
+  <si>
+    <t>CheckTwoString</t>
+  </si>
+  <si>
+    <t>DeleteAllCookies</t>
+  </si>
+  <si>
+    <t>TakeScreeShot</t>
+  </si>
+  <si>
+    <t>Highlight</t>
+  </si>
+  <si>
+    <t>NewTab</t>
+  </si>
+  <si>
+    <t>CloseTab</t>
+  </si>
+  <si>
+    <t>SendHttpPost</t>
+  </si>
+  <si>
+    <t>SplitAndOpenURL</t>
+  </si>
+  <si>
+    <t>WaitForAjaxQuery</t>
+  </si>
+  <si>
+    <t>TypeUsingReference</t>
+  </si>
+  <si>
+    <t>CurrentWindowName</t>
+  </si>
+  <si>
+    <t>GetSecondWindowHandle</t>
+  </si>
+  <si>
+    <t>SwitchParticularWindow</t>
+  </si>
+  <si>
+    <t>TypeDynamicValueReuse</t>
+  </si>
+  <si>
+    <t>PatientLogin</t>
+  </si>
+  <si>
+    <t>PortalSelection</t>
+  </si>
+  <si>
+    <t>PatientSSN</t>
   </si>
   <si>
     <t>TypeUpload</t>
-  </si>
-  <si>
-    <t>UPLOAD_FILE</t>
-  </si>
-  <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>Upload a file</t>
-  </si>
-  <si>
-    <t>File uploaded</t>
-  </si>
-  <si>
-    <t>Click Submit button</t>
-  </si>
-  <si>
-    <t>Submit button clicked</t>
-  </si>
-  <si>
-    <t>AlertOk</t>
-  </si>
-  <si>
-    <t>BACK_BUTTON</t>
-  </si>
-  <si>
-    <t>Click back button</t>
-  </si>
-  <si>
-    <t>Back button clicked</t>
-  </si>
-  <si>
-    <t>SSN_TEXT_FIELD</t>
-  </si>
-  <si>
-    <t>PROVIDER_EXPENDITURE</t>
-  </si>
-  <si>
-    <t>Click on Expenditure</t>
-  </si>
-  <si>
-    <t>Clicked Expenditure</t>
-  </si>
-  <si>
-    <t>CREATE_EXPENDITURE</t>
-  </si>
-  <si>
-    <t>Click Create expenditure</t>
-  </si>
-  <si>
-    <t>Create Expenditure clicked</t>
-  </si>
-  <si>
-    <t>EXPE_TYPE_OF_SERVICE</t>
-  </si>
-  <si>
-    <t>con</t>
-  </si>
-  <si>
-    <t>Type search type of service</t>
-  </si>
-  <si>
-    <t>Type of service entered</t>
-  </si>
-  <si>
-    <t>Select type of service</t>
-  </si>
-  <si>
-    <t>Type of service selected</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_FROM</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_FROM_DATE</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_TO</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_TO_DATE</t>
-  </si>
-  <si>
-    <t>EXPE_AMOUNT_SUBMITTED</t>
-  </si>
-  <si>
-    <t>EXPE_NEXT_BUTTON</t>
-  </si>
-  <si>
-    <t>EXPE_SIGN_SUBMIT</t>
-  </si>
-  <si>
-    <t>EXPE_ELECTRONIC_SIGN</t>
-  </si>
-  <si>
-    <t>Click ok to Pcase alert</t>
-  </si>
-  <si>
-    <t>Pcase alert clicked</t>
-  </si>
-  <si>
-    <t>POE_ID</t>
-  </si>
-  <si>
-    <t>Get POE ID</t>
-  </si>
-  <si>
-    <t>POE id retrieved</t>
-  </si>
-  <si>
-    <t>VerifyElementIsPresent</t>
-  </si>
-  <si>
-    <t>SUBMITTED_EXPENDITURES</t>
-  </si>
-  <si>
-    <t>Verify Submitted expenditures</t>
-  </si>
-  <si>
-    <t>Verified</t>
-  </si>
-  <si>
-    <t>PATIENT_LOGOUT</t>
-  </si>
-  <si>
-    <t>Click on logout</t>
-  </si>
-  <si>
-    <t>Logout successfully</t>
-  </si>
-  <si>
-    <t>Actions</t>
-  </si>
-  <si>
-    <t>GetUrl</t>
-  </si>
-  <si>
-    <t>ByName</t>
-  </si>
-  <si>
-    <t>NavigateToURL</t>
-  </si>
-  <si>
-    <t>ByOrName</t>
-  </si>
-  <si>
-    <t>WaitTime</t>
-  </si>
-  <si>
-    <t>ByLinkText</t>
-  </si>
-  <si>
-    <t>Maximize</t>
-  </si>
-  <si>
-    <t>ByTagName</t>
-  </si>
-  <si>
-    <t>ByClassName</t>
-  </si>
-  <si>
-    <t>ActionClick</t>
-  </si>
-  <si>
-    <t>ByCssSelector</t>
-  </si>
-  <si>
-    <t>JsClick</t>
-  </si>
-  <si>
-    <t>Normal Xpath</t>
-  </si>
-  <si>
-    <t>ByPartialLinkText</t>
-  </si>
-  <si>
-    <t>DoubleClick</t>
-  </si>
-  <si>
-    <t>Xpath</t>
-  </si>
-  <si>
-    <t>ClickAt</t>
-  </si>
-  <si>
-    <t>ClickAndHold</t>
-  </si>
-  <si>
-    <t>Clear</t>
-  </si>
-  <si>
-    <t>ClearAndType</t>
-  </si>
-  <si>
-    <t>ActionType</t>
-  </si>
-  <si>
-    <t>Submit</t>
-  </si>
-  <si>
-    <t>MouseOver</t>
-  </si>
-  <si>
-    <t>MouseOverAndClick</t>
-  </si>
-  <si>
-    <t>GetAttribute</t>
-  </si>
-  <si>
-    <t>GetCount</t>
-  </si>
-  <si>
-    <t>GetCurrentURL</t>
-  </si>
-  <si>
-    <t>SelectCheckBox</t>
-  </si>
-  <si>
-    <t>SelectByIndex</t>
-  </si>
-  <si>
-    <t>SelectByValue</t>
-  </si>
-  <si>
-    <t>DeSelectCheckBox</t>
-  </si>
-  <si>
-    <t>DeSelectByIndex</t>
-  </si>
-  <si>
-    <t>DeSelectByValue</t>
-  </si>
-  <si>
-    <t>DeSelectByVisibleText</t>
-  </si>
-  <si>
-    <t>SwitchFrameByName</t>
-  </si>
-  <si>
-    <t>SwitchFrameByIndex</t>
-  </si>
-  <si>
-    <t>SwitchFrameByXpath</t>
-  </si>
-  <si>
-    <t>SwitchFrame</t>
-  </si>
-  <si>
-    <t>SwitchToDefaultFrame</t>
-  </si>
-  <si>
-    <t>Refresh</t>
-  </si>
-  <si>
-    <t>Back</t>
-  </si>
-  <si>
-    <t>Forward</t>
-  </si>
-  <si>
-    <t>DismissAlert</t>
-  </si>
-  <si>
-    <t>AlertDismiss</t>
-  </si>
-  <si>
-    <t>PromptBox</t>
-  </si>
-  <si>
-    <t>GenerateAlert</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>GetWindowHandle</t>
-  </si>
-  <si>
-    <t>SwitchToDefaultWindow</t>
-  </si>
-  <si>
-    <t>SwitchToDefaultContent</t>
-  </si>
-  <si>
-    <t>GetAutoIt</t>
-  </si>
-  <si>
-    <t>ScrollDown</t>
-  </si>
-  <si>
-    <t>ScrollUp</t>
-  </si>
-  <si>
-    <t>ScrollBottom</t>
-  </si>
-  <si>
-    <t>KeyboardPageUp</t>
-  </si>
-  <si>
-    <t>KeyboardPageDown</t>
-  </si>
-  <si>
-    <t>KeyboardEnd</t>
-  </si>
-  <si>
-    <t>KeyboardTab</t>
-  </si>
-  <si>
-    <t>PageMaximize</t>
-  </si>
-  <si>
-    <t>KeyboardArrowUp</t>
-  </si>
-  <si>
-    <t>KeyboardArrowDown</t>
-  </si>
-  <si>
-    <t>KeyboardArrowLeft</t>
-  </si>
-  <si>
-    <t>KeyboardArrowRight</t>
-  </si>
-  <si>
-    <t>Drag</t>
-  </si>
-  <si>
-    <t>Drop</t>
-  </si>
-  <si>
-    <t>VerifyElementIsSelected</t>
-  </si>
-  <si>
-    <t>VerifyElementIsNotPresent</t>
-  </si>
-  <si>
-    <t>VerifyElementIsEnable</t>
-  </si>
-  <si>
-    <t>WaitUntilVisibilityOfElement</t>
-  </si>
-  <si>
-    <t>WaitUntilInvisibilityOfElement</t>
-  </si>
-  <si>
-    <t>VerifyTextIsPresent</t>
-  </si>
-  <si>
-    <t>WaitUntilTextToBeNotPresent</t>
-  </si>
-  <si>
-    <t>WaitUntilTextToBePresent</t>
-  </si>
-  <si>
-    <t>WaitUntilElementToBeClickable</t>
-  </si>
-  <si>
-    <t>WaitUntilElementToBeSelected</t>
-  </si>
-  <si>
-    <t>TextToBePresentInElementValue</t>
-  </si>
-  <si>
-    <t>WaitForElementPresent</t>
-  </si>
-  <si>
-    <t>WaitForElementNotPresent</t>
-  </si>
-  <si>
-    <t>CheckTwoString</t>
-  </si>
-  <si>
-    <t>DeleteAllCookies</t>
-  </si>
-  <si>
-    <t>TakeScreeShot</t>
-  </si>
-  <si>
-    <t>Highlight</t>
-  </si>
-  <si>
-    <t>NewTab</t>
-  </si>
-  <si>
-    <t>CloseTab</t>
-  </si>
-  <si>
-    <t>SendHttpPost</t>
-  </si>
-  <si>
-    <t>SplitAndOpenURL</t>
-  </si>
-  <si>
-    <t>WaitForAjaxQuery</t>
-  </si>
-  <si>
-    <t>TypeUsingReference</t>
-  </si>
-  <si>
-    <t>CurrentWindowName</t>
-  </si>
-  <si>
-    <t>GetSecondWindowHandle</t>
-  </si>
-  <si>
-    <t>SwitchParticularWindow</t>
-  </si>
-  <si>
-    <t>TypeDynamicValueReuse</t>
-  </si>
-  <si>
-    <t>PatientLogin</t>
-  </si>
-  <si>
-    <t>PortalSelection</t>
-  </si>
-  <si>
-    <t>PatientSSN</t>
   </si>
   <si>
     <t>ProviderLogin</t>
@@ -1414,10 +1245,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1444,7 +1275,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1460,8 +1290,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1469,15 +1300,74 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1498,55 +1388,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1558,33 +1404,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1603,13 +1434,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1621,31 +1476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1663,13 +1500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1681,67 +1512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1759,19 +1530,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1783,18 +1608,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1842,6 +1673,61 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1872,39 +1758,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1928,27 +1781,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1960,130 +1802,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2095,8 +1937,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2226,29 +2068,14 @@
       <sheetName val="DataList"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="DataList"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2263,7 +2090,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2271,8 +2098,8 @@
       <sheetName val="DataList"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2554,10 +2381,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H195"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119:A195"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2815,12 +2642,8 @@
         <v>37</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8">
@@ -2833,7 +2656,7 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -2850,15 +2673,11 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8">
@@ -2873,12 +2692,8 @@
       <c r="E15" s="8">
         <v>5</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8">
@@ -2886,22 +2701,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H16" s="7"/>
     </row>
@@ -2926,22 +2741,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E18" s="7">
         <v>2</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H18" s="7"/>
     </row>
@@ -2950,22 +2765,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E19" s="8">
         <v>1000</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H19" s="8"/>
     </row>
@@ -2980,14 +2795,14 @@
         <v>20</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H20" s="7"/>
     </row>
@@ -3002,14 +2817,14 @@
         <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -3024,14 +2839,14 @@
         <v>20</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H22" s="7"/>
     </row>
@@ -3040,22 +2855,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E23" s="8">
         <v>10001</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H23" s="8"/>
     </row>
@@ -3070,14 +2885,14 @@
         <v>20</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H24" s="7"/>
     </row>
@@ -3094,7 +2909,7 @@
         <v>5</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>13</v>
@@ -3106,16 +2921,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -3126,22 +2941,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="G27" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="H27" s="8"/>
     </row>
@@ -3150,22 +2965,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H28" s="7"/>
     </row>
@@ -3174,22 +2989,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="G29" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="H29" s="8"/>
     </row>
@@ -3198,22 +3013,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H30" s="7"/>
     </row>
@@ -3222,22 +3037,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D31" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="G31" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="H31" s="8"/>
     </row>
@@ -3252,14 +3067,14 @@
         <v>20</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H32" s="7"/>
     </row>
@@ -3274,14 +3089,14 @@
         <v>15</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H33" s="8"/>
     </row>
@@ -3310,22 +3125,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D35" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="G35" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="H35" s="8"/>
     </row>
@@ -3334,22 +3149,20 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H36" s="7"/>
     </row>
@@ -3358,22 +3171,20 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>101</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E37" s="8"/>
       <c r="F37" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H37" s="8"/>
     </row>
@@ -3382,22 +3193,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H38" s="7"/>
     </row>
@@ -3406,22 +3217,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E39" s="8">
-        <v>10001</v>
+        <v>104</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="H39" s="8"/>
     </row>
@@ -3430,22 +3241,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="E40" s="7">
+        <v>10001</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="H40" s="7"/>
     </row>
@@ -3454,19 +3265,23 @@
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
+        <v>110</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8">
@@ -3474,16 +3289,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" s="7">
-        <v>9876543210</v>
+        <v>113</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
@@ -3494,16 +3309,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+      <c r="E43" s="8">
+        <v>9876543210</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -3514,21 +3329,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>91</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8">
@@ -3536,18 +3349,20 @@
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8">
-        <v>4</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="8"/>
       <c r="F45" s="8" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="H45" s="8"/>
     </row>
@@ -3556,17 +3371,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7">
+        <v>4</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8">
@@ -3574,23 +3391,17 @@
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>28</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
       <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8">
@@ -3598,22 +3409,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H48" s="7"/>
     </row>
@@ -3622,22 +3433,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="H49" s="8"/>
     </row>
@@ -3646,22 +3457,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H50" s="7"/>
     </row>
@@ -3670,22 +3481,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="H51" s="8"/>
     </row>
@@ -3694,22 +3505,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H52" s="7"/>
     </row>
@@ -3718,22 +3529,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E53" s="8">
-        <v>10001</v>
+        <v>135</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="H53" s="8"/>
     </row>
@@ -3742,22 +3553,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E54" s="7">
-        <v>9789123456</v>
+        <v>10001</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H54" s="7"/>
     </row>
@@ -3766,22 +3577,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="E55" s="8">
+        <v>9789123456</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H55" s="8"/>
     </row>
@@ -3790,20 +3601,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E56" s="7"/>
+        <v>143</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>144</v>
+      </c>
       <c r="F56" s="7" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="H56" s="7"/>
     </row>
@@ -3812,18 +3625,20 @@
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8">
-        <v>4</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="8"/>
       <c r="F57" s="8" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="H57" s="8"/>
     </row>
@@ -3832,22 +3647,18 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7">
+        <v>4</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="H58" s="7"/>
     </row>
@@ -3856,15 +3667,23 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8">
-        <v>5</v>
-      </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="H59" s="8"/>
     </row>
     <row r="60" spans="1:8">
@@ -3872,17 +3691,15 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="E60" s="7">
+        <v>5</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
       <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:8">
@@ -3890,22 +3707,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>155</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
       <c r="F61" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H61" s="8"/>
     </row>
@@ -3914,22 +3725,22 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H62" s="7"/>
     </row>
@@ -3938,22 +3749,20 @@
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>163</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="E63" s="8"/>
       <c r="F63" s="8" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H63" s="8"/>
     </row>
@@ -3962,22 +3771,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H64" s="7"/>
     </row>
@@ -3986,22 +3795,20 @@
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E65" s="8">
-        <v>1235647899</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="E65" s="8"/>
       <c r="F65" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H65" s="8"/>
     </row>
@@ -4010,17 +3817,23 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
+        <v>167</v>
+      </c>
+      <c r="E66" s="7">
+        <v>1235647899</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>169</v>
+      </c>
       <c r="H66" s="7"/>
     </row>
     <row r="67" spans="1:8">
@@ -4034,15 +3847,11 @@
         <v>20</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E67" s="8"/>
-      <c r="F67" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>174</v>
-      </c>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
       <c r="H67" s="8"/>
     </row>
     <row r="68" spans="1:8">
@@ -4050,22 +3859,20 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E68" s="7">
-        <v>97890456789</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="E68" s="7"/>
       <c r="F68" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H68" s="7"/>
     </row>
@@ -4074,20 +3881,22 @@
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E69" s="8"/>
+        <v>174</v>
+      </c>
+      <c r="E69" s="8">
+        <v>97890456789</v>
+      </c>
       <c r="F69" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H69" s="8"/>
     </row>
@@ -4096,22 +3905,20 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="E70" s="7">
-        <v>1230</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="E70" s="7"/>
       <c r="F70" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H70" s="7"/>
     </row>
@@ -4120,22 +3927,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E71" s="8">
-        <v>1550</v>
+        <v>1230</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H71" s="8"/>
     </row>
@@ -4144,20 +3951,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E72" s="7"/>
+        <v>183</v>
+      </c>
+      <c r="E72" s="7">
+        <v>1550</v>
+      </c>
       <c r="F72" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H72" s="7"/>
     </row>
@@ -4172,14 +3981,14 @@
         <v>20</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="H73" s="8"/>
     </row>
@@ -4194,14 +4003,14 @@
         <v>20</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H74" s="7"/>
     </row>
@@ -4216,14 +4025,14 @@
         <v>20</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H75" s="8"/>
     </row>
@@ -4235,17 +4044,17 @@
         <v>19</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="7" t="s">
-        <v>90</v>
+        <v>193</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>91</v>
+        <v>189</v>
       </c>
       <c r="H76" s="7"/>
     </row>
@@ -4254,18 +4063,20 @@
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8">
-        <v>4</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E77" s="8"/>
       <c r="F77" s="8" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="H77" s="8"/>
     </row>
@@ -4274,20 +4085,18 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E78" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7">
+        <v>4</v>
+      </c>
       <c r="F78" s="7" t="s">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>197</v>
+        <v>13</v>
       </c>
       <c r="H78" s="7"/>
     </row>
@@ -4296,18 +4105,20 @@
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8">
-        <v>4</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E79" s="8"/>
       <c r="F79" s="8" t="s">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="H79" s="8"/>
     </row>
@@ -4316,18 +4127,18 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7">
+        <v>4</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="G80" s="7" t="s">
-        <v>190</v>
+        <v>13</v>
       </c>
       <c r="H80" s="7"/>
     </row>
@@ -4336,15 +4147,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8">
-        <v>3</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E81" s="8"/>
       <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
+      <c r="G81" s="8" t="s">
+        <v>189</v>
+      </c>
       <c r="H81" s="8"/>
     </row>
     <row r="82" spans="1:8">
@@ -4352,21 +4167,15 @@
         <v>81</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>35</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7">
+        <v>3</v>
+      </c>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
     <row r="83" spans="1:8">
@@ -4374,15 +4183,21 @@
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8">
-        <v>2</v>
-      </c>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="H83" s="8"/>
     </row>
     <row r="84" spans="1:8">
@@ -4390,23 +4205,15 @@
         <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>103</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7">
+        <v>2</v>
+      </c>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
     <row r="85" spans="1:8">
@@ -4414,20 +4221,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="E85" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="F85" s="8" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="H85" s="8"/>
     </row>
@@ -4436,20 +4245,20 @@
         <v>85</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="7" t="s">
-        <v>206</v>
+        <v>124</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="H86" s="7"/>
     </row>
@@ -4458,20 +4267,20 @@
         <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H87" s="8"/>
     </row>
@@ -4480,18 +4289,20 @@
         <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7">
-        <v>4</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E88" s="7"/>
       <c r="F88" s="7" t="s">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>13</v>
+        <v>208</v>
       </c>
       <c r="H88" s="7"/>
     </row>
@@ -4500,17 +4311,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8">
+        <v>4</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="H89" s="8"/>
     </row>
     <row r="90" spans="1:8">
@@ -4518,13 +4331,15 @@
         <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7">
-        <v>5</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E90" s="7"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
@@ -4534,21 +4349,15 @@
         <v>90</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>28</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8">
+        <v>5</v>
+      </c>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
       <c r="H91" s="8"/>
     </row>
     <row r="92" spans="1:8">
@@ -4556,20 +4365,20 @@
         <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="7" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H92" s="7"/>
     </row>
@@ -4578,20 +4387,20 @@
         <v>92</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>213</v>
+        <v>63</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8" t="s">
-        <v>215</v>
+        <v>31</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="H93" s="8"/>
     </row>
@@ -4600,20 +4409,20 @@
         <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>65</v>
+        <v>212</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H94" s="7"/>
     </row>
@@ -4622,20 +4431,20 @@
         <v>94</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>213</v>
+        <v>63</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="8" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H95" s="8"/>
     </row>
@@ -4644,20 +4453,20 @@
         <v>95</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>19</v>
+        <v>212</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E96" s="7"/>
       <c r="F96" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>35</v>
+        <v>182</v>
       </c>
       <c r="H96" s="7"/>
     </row>
@@ -4672,11 +4481,11 @@
         <v>20</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>35</v>
@@ -4694,11 +4503,11 @@
         <v>20</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E98" s="7"/>
       <c r="F98" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>35</v>
@@ -4710,22 +4519,20 @@
         <v>98</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>226</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="E99" s="8"/>
       <c r="F99" s="8" t="s">
-        <v>94</v>
+        <v>223</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="H99" s="8"/>
     </row>
@@ -4734,22 +4541,22 @@
         <v>99</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>230</v>
+        <v>92</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c r="H100" s="7"/>
     </row>
@@ -4758,17 +4565,23 @@
         <v>100</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
+        <v>227</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>132</v>
+      </c>
       <c r="H101" s="8"/>
     </row>
     <row r="102" spans="1:8">
@@ -4776,17 +4589,15 @@
         <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>233</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="E102" s="7"/>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
@@ -4796,16 +4607,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
@@ -4816,16 +4627,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E104" s="7">
-        <v>10001</v>
+        <v>233</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
@@ -4836,16 +4647,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>236</v>
+        <v>56</v>
       </c>
       <c r="E105" s="8">
-        <v>9789045678</v>
+        <v>10001</v>
       </c>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
@@ -4856,16 +4667,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E106" s="7">
-        <v>21331</v>
+        <v>9789045678</v>
       </c>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
@@ -4876,16 +4687,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E107" s="8">
-        <v>97989898982</v>
+        <v>21331</v>
       </c>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
@@ -4896,16 +4707,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>144</v>
+        <v>237</v>
+      </c>
+      <c r="E108" s="7">
+        <v>97989898982</v>
       </c>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
@@ -4916,16 +4727,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>241</v>
+        <v>144</v>
       </c>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
@@ -4936,16 +4747,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>144</v>
+        <v>240</v>
       </c>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
@@ -4956,15 +4767,17 @@
         <v>110</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E111" s="8"/>
+        <v>241</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
@@ -4974,13 +4787,15 @@
         <v>111</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7">
-        <v>2</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E112" s="7"/>
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
@@ -4990,15 +4805,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E113" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8">
+        <v>2</v>
+      </c>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="8"/>
@@ -5011,18 +4824,14 @@
         <v>19</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>89</v>
+        <v>243</v>
       </c>
       <c r="E114" s="7"/>
-      <c r="F114" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>91</v>
-      </c>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
       <c r="H114" s="7"/>
     </row>
     <row r="115" spans="1:8">
@@ -5030,18 +4839,20 @@
         <v>114</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8">
-        <v>4</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E115" s="8"/>
       <c r="F115" s="8" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="H115" s="8"/>
     </row>
@@ -5050,22 +4861,18 @@
         <v>115</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>226</v>
+        <v>11</v>
+      </c>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7">
+        <v>4</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>246</v>
+        <v>12</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="H116" s="7"/>
     </row>
@@ -5074,15 +4881,23 @@
         <v>116</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8">
-        <v>5</v>
-      </c>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>246</v>
+      </c>
       <c r="H117" s="8"/>
     </row>
     <row r="118" spans="1:8">
@@ -5090,17 +4905,15 @@
         <v>117</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="E118" s="7">
+        <v>5</v>
+      </c>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
       <c r="H118" s="7"/>
     </row>
     <row r="119" spans="1:8">
@@ -5108,25 +4921,21 @@
         <v>118</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>250</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H119" s="8"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="8">
+      <c r="A120" s="7">
         <v>119</v>
       </c>
       <c r="B120" s="7" t="s">
@@ -5136,14 +4945,14 @@
         <v>20</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>172</v>
+        <v>249</v>
       </c>
       <c r="E120" s="7"/>
       <c r="F120" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G120" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H120" s="7"/>
     </row>
@@ -5151,1541 +4960,614 @@
       <c r="A121" s="8">
         <v>120</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C121" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="H121" s="8"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="7">
+        <v>121</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C122" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="D122" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G122" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H121" s="7"/>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="8">
-        <v>121</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8">
-        <v>4</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H122" s="8"/>
+      <c r="H122" s="7"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="8">
         <v>122</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8">
+        <v>4</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" s="8"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="7">
+        <v>123</v>
+      </c>
+      <c r="B124" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C123" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D123" s="7" t="s">
+      <c r="C124" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7" t="s">
+      <c r="G124" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="G123" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H123" s="7"/>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="8">
-        <v>123</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8">
-        <v>1</v>
-      </c>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
+      <c r="H124" s="7"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="8">
         <v>124</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C125" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
+      <c r="C125" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="8">
+      <c r="A126" s="7">
         <v>125</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8">
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7">
         <v>1</v>
       </c>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="8"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="8">
         <v>126</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C127" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D127" s="7" t="s">
+      <c r="C127" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7" t="s">
+      <c r="G127" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="G127" s="7" t="s">
+      <c r="H127" s="8"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="7">
+        <v>127</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7">
+        <v>5</v>
+      </c>
+      <c r="F128" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="H127" s="7"/>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="8">
-        <v>127</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8">
-        <v>3</v>
-      </c>
-      <c r="F128" s="8" t="s">
+      <c r="G128" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G128" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="H128" s="8"/>
+      <c r="H128" s="7"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="8">
         <v>128</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C129" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D129" s="7" t="s">
+      <c r="C129" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7" t="s">
+      <c r="G129" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="G129" s="7" t="s">
+      <c r="H129" s="8"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="7">
+        <v>129</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D130" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="H129" s="7"/>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="8">
-        <v>129</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D130" s="8" t="s">
+      <c r="E130" s="7"/>
+      <c r="F130" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8" t="s">
+      <c r="G130" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="G130" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="H130" s="8"/>
+      <c r="H130" s="7"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="8">
         <v>130</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7">
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8">
         <v>2</v>
       </c>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="8">
+      <c r="A132" s="7">
         <v>131</v>
       </c>
-      <c r="B132" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C132" s="8" t="s">
+      <c r="B132" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C132" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D132" s="8" t="s">
+      <c r="D132" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E132" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="E132" s="8" t="s">
+      <c r="F132" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F132" s="8" t="s">
+      <c r="G132" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="G132" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="H132" s="8"/>
+      <c r="H132" s="7"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="8">
         <v>132</v>
       </c>
-      <c r="B133" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C133" s="7" t="s">
+      <c r="B133" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C133" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D133" s="7" t="s">
+      <c r="D133" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F133" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="E133" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F133" s="7" t="s">
+      <c r="G133" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="G133" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H133" s="7"/>
+      <c r="H133" s="8"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="8">
+      <c r="A134" s="7">
         <v>133</v>
       </c>
-      <c r="B134" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C134" s="8" t="s">
+      <c r="B134" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C134" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D134" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E134" s="8">
+      <c r="D134" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E134" s="7">
         <v>9889656446</v>
       </c>
-      <c r="F134" s="8" t="s">
+      <c r="F134" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G134" s="8" t="s">
+      <c r="G134" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H134" s="8"/>
+      <c r="H134" s="7"/>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="8">
         <v>134</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="B135" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C135" s="7" t="s">
+      <c r="C135" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D135" s="7" t="s">
+      <c r="D135" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7" t="s">
+      <c r="G135" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="G135" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H135" s="7"/>
+      <c r="H135" s="8"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="8">
+      <c r="A136" s="7">
         <v>135</v>
       </c>
-      <c r="B136" s="8" t="s">
+      <c r="B136" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8">
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7">
         <v>4</v>
       </c>
-      <c r="F136" s="8" t="s">
+      <c r="F136" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G136" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H136" s="8"/>
+      <c r="G136" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H136" s="7"/>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="8">
         <v>136</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C137" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D137" s="7" t="s">
+      <c r="E137" s="8"/>
+      <c r="F137" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="E137" s="7"/>
-      <c r="F137" s="7" t="s">
+      <c r="G137" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="G137" s="7" t="s">
+      <c r="H137" s="8"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="7">
+        <v>137</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="H137" s="7"/>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" s="8">
-        <v>137</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D138" s="8" t="s">
+      <c r="E138" s="7"/>
+      <c r="F138" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="G138" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="H138" s="8"/>
+      <c r="G138" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H138" s="7"/>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="8">
         <v>138</v>
       </c>
-      <c r="B139" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D139" s="7" t="s">
+      <c r="B139" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7" t="s">
+      <c r="G139" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="H139" s="8"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="7">
+        <v>139</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="G139" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H139" s="7"/>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" s="8">
-        <v>139</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D140" s="8" t="s">
+      <c r="E140" s="7"/>
+      <c r="F140" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="G140" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="H140" s="8"/>
+      <c r="G140" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H140" s="7"/>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="8">
         <v>140</v>
       </c>
-      <c r="B141" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D141" s="7" t="s">
+      <c r="B141" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7" t="s">
+      <c r="G141" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="H141" s="8"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="7">
+        <v>141</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="G141" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H141" s="7"/>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" s="8">
-        <v>141</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D142" s="8" t="s">
+      <c r="E142" s="7"/>
+      <c r="F142" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="G142" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="H142" s="8"/>
+      <c r="G142" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H142" s="7"/>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="8">
         <v>142</v>
       </c>
-      <c r="B143" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D143" s="7" t="s">
+      <c r="B143" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7" t="s">
+      <c r="G143" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="H143" s="8"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="7">
+        <v>143</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G143" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H143" s="7"/>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" s="8">
-        <v>143</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D144" s="8" t="s">
+      <c r="E144" s="7"/>
+      <c r="F144" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="G144" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="H144" s="8"/>
+      <c r="G144" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H144" s="7"/>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="8">
         <v>144</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B145" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C145" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D145" s="7" t="s">
+      <c r="C145" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="E145" s="7"/>
-      <c r="F145" s="7" t="s">
+      <c r="G145" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="G145" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H145" s="7"/>
+      <c r="H145" s="8"/>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="8">
+      <c r="A146" s="7">
         <v>145</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="B146" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C146" s="8"/>
-      <c r="D146" s="8"/>
-      <c r="E146" s="8">
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7">
         <v>5</v>
       </c>
-      <c r="F146" s="8"/>
-      <c r="G146" s="8"/>
-      <c r="H146" s="8"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="7"/>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="8">
         <v>146</v>
       </c>
-      <c r="B147" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E147" s="7"/>
-      <c r="F147" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G147" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H147" s="7">
-        <v>3</v>
-      </c>
+      <c r="B147" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="H147" s="8"/>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="8">
+      <c r="A148" s="7">
         <v>147</v>
       </c>
-      <c r="B148" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G148" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H148" s="8"/>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" s="8">
-        <v>148</v>
-      </c>
-      <c r="B149" s="7" t="s">
+      <c r="B148" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C149" s="7"/>
-      <c r="D149" s="7"/>
-      <c r="E149" s="7">
-        <v>5</v>
-      </c>
-      <c r="F149" s="7"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="7"/>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" s="8">
-        <v>149</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="E150" s="8"/>
-      <c r="F150" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="G150" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="H150" s="8"/>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="A151" s="8">
-        <v>150</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="E151" s="7"/>
-      <c r="F151" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G151" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H151" s="7"/>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="A152" s="8">
-        <v>151</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C152" s="8"/>
-      <c r="D152" s="8"/>
-      <c r="E152" s="8">
-        <v>20</v>
-      </c>
-      <c r="F152" s="8"/>
-      <c r="G152" s="8"/>
-      <c r="H152" s="8"/>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="A153" s="8">
-        <v>152</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="E153" s="7"/>
-      <c r="F153" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G153" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H153" s="7"/>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154" s="8">
-        <v>153</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E154" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="F154" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="G154" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="H154" s="8"/>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="A155" s="8">
-        <v>154</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="E155" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F155" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G155" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="H155" s="7"/>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="A156" s="8">
-        <v>155</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="E156" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="F156" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="G156" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="H156" s="8"/>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157" s="8">
-        <v>156</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D157" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E157" s="7"/>
-      <c r="F157" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G157" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H157" s="7"/>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="A158" s="8">
-        <v>157</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C158" s="8"/>
-      <c r="D158" s="8"/>
-      <c r="E158" s="8">
-        <v>20</v>
-      </c>
-      <c r="F158" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G158" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H158" s="8"/>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="A159" s="8">
-        <v>158</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="C159" s="7"/>
-      <c r="D159" s="7"/>
-      <c r="E159" s="7"/>
-      <c r="F159" s="7"/>
-      <c r="G159" s="7"/>
-      <c r="H159" s="7"/>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160" s="8">
-        <v>159</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C160" s="8"/>
-      <c r="D160" s="8"/>
-      <c r="E160" s="8">
-        <v>10</v>
-      </c>
-      <c r="F160" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G160" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H160" s="8"/>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="A161" s="8">
-        <v>160</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="E161" s="7"/>
-      <c r="F161" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G161" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H161" s="7"/>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="A162" s="8">
-        <v>161</v>
-      </c>
-      <c r="B162" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8">
-        <v>5</v>
-      </c>
-      <c r="F162" s="8"/>
-      <c r="G162" s="8"/>
-      <c r="H162" s="8"/>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" s="8">
-        <v>162</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="E163" s="7"/>
-      <c r="F163" s="7"/>
-      <c r="G163" s="7"/>
-      <c r="H163" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="A164" s="8">
-        <v>163</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C164" s="8"/>
-      <c r="D164" s="8"/>
-      <c r="E164" s="8">
-        <v>1</v>
-      </c>
-      <c r="F164" s="8"/>
-      <c r="G164" s="8"/>
-      <c r="H164" s="8"/>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="A165" s="8">
-        <v>164</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E165" s="7"/>
-      <c r="F165" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G165" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H165" s="7"/>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" s="8">
-        <v>165</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C166" s="8"/>
-      <c r="D166" s="8"/>
-      <c r="E166" s="8">
-        <v>5</v>
-      </c>
-      <c r="F166" s="8"/>
-      <c r="G166" s="8"/>
-      <c r="H166" s="8"/>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="A167" s="8">
-        <v>166</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D167" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="E167" s="7"/>
-      <c r="F167" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G167" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H167" s="7"/>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="A168" s="8">
-        <v>167</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C168" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D168" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="E168" s="8"/>
-      <c r="F168" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="G168" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="H168" s="8"/>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="A169" s="8">
-        <v>168</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C169" s="7"/>
-      <c r="D169" s="7"/>
-      <c r="E169" s="7">
-        <v>5</v>
-      </c>
-      <c r="F169" s="7"/>
-      <c r="G169" s="7"/>
-      <c r="H169" s="7"/>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="A170" s="8">
-        <v>169</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C170" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D170" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="E170" s="8"/>
-      <c r="F170" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="G170" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="H170" s="8"/>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="A171" s="8">
-        <v>170</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C171" s="7"/>
-      <c r="D171" s="7"/>
-      <c r="E171" s="7">
-        <v>5</v>
-      </c>
-      <c r="F171" s="7"/>
-      <c r="G171" s="7"/>
-      <c r="H171" s="7"/>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="A172" s="8">
-        <v>171</v>
-      </c>
-      <c r="B172" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C172" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D172" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="E172" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="F172" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="G172" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="H172" s="8"/>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="A173" s="8">
-        <v>172</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C173" s="7"/>
-      <c r="D173" s="7"/>
-      <c r="E173" s="7">
-        <v>5</v>
-      </c>
-      <c r="F173" s="7"/>
-      <c r="G173" s="7"/>
-      <c r="H173" s="7"/>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="A174" s="8">
-        <v>173</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C174" s="8"/>
-      <c r="D174" s="8"/>
-      <c r="E174" s="8"/>
-      <c r="F174" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="G174" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="H174" s="8"/>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="A175" s="8">
-        <v>174</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D175" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="E175" s="7"/>
-      <c r="F175" s="7"/>
-      <c r="G175" s="7"/>
-      <c r="H175" s="7"/>
-    </row>
-    <row r="176" spans="1:8">
-      <c r="A176" s="8">
-        <v>175</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C176" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D176" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="E176" s="8"/>
-      <c r="F176" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="G176" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="H176" s="8"/>
-    </row>
-    <row r="177" spans="1:8">
-      <c r="A177" s="8">
-        <v>176</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D177" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="E177" s="7"/>
-      <c r="F177" s="7"/>
-      <c r="G177" s="7"/>
-      <c r="H177" s="7"/>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" s="8">
-        <v>177</v>
-      </c>
-      <c r="B178" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C178" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D178" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="E178" s="8"/>
-      <c r="F178" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="G178" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="H178" s="8"/>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="A179" s="8">
-        <v>178</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D179" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="E179" s="7">
-        <v>200</v>
-      </c>
-      <c r="F179" s="7"/>
-      <c r="G179" s="7"/>
-      <c r="H179" s="7"/>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="A180" s="8">
-        <v>179</v>
-      </c>
-      <c r="B180" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D180" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="E180" s="8"/>
-      <c r="F180" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G180" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H180" s="8"/>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="A181" s="8">
-        <v>180</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C181" s="7"/>
-      <c r="D181" s="7"/>
-      <c r="E181" s="7">
-        <v>3</v>
-      </c>
-      <c r="F181" s="7"/>
-      <c r="G181" s="7"/>
-      <c r="H181" s="7"/>
-    </row>
-    <row r="182" spans="1:8">
-      <c r="A182" s="8">
-        <v>181</v>
-      </c>
-      <c r="B182" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C182" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D182" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E182" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="F182" s="8"/>
-      <c r="G182" s="8"/>
-      <c r="H182" s="8"/>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="A183" s="8">
-        <v>182</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D183" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="E183" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="F183" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G183" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="H183" s="7"/>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="A184" s="8">
-        <v>183</v>
-      </c>
-      <c r="B184" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C184" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D184" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="E184" s="8"/>
-      <c r="F184" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G184" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H184" s="8"/>
-    </row>
-    <row r="185" spans="1:8">
-      <c r="A185" s="8">
-        <v>184</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C185" s="7"/>
-      <c r="D185" s="7"/>
-      <c r="E185" s="7">
-        <v>2</v>
-      </c>
-      <c r="F185" s="7"/>
-      <c r="G185" s="7"/>
-      <c r="H185" s="7"/>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="A186" s="8">
-        <v>185</v>
-      </c>
-      <c r="B186" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C186" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D186" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="E186" s="8"/>
-      <c r="F186" s="8"/>
-      <c r="G186" s="8"/>
-      <c r="H186" s="8"/>
-    </row>
-    <row r="187" spans="1:8">
-      <c r="A187" s="8">
-        <v>186</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D187" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="E187" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F187" s="7"/>
-      <c r="G187" s="7"/>
-      <c r="H187" s="7"/>
-    </row>
-    <row r="188" spans="1:8">
-      <c r="A188" s="8">
-        <v>187</v>
-      </c>
-      <c r="B188" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C188" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D188" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="E188" s="8"/>
-      <c r="F188" s="8"/>
-      <c r="G188" s="8"/>
-      <c r="H188" s="8"/>
-    </row>
-    <row r="189" spans="1:8">
-      <c r="A189" s="8">
-        <v>188</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C189" s="7"/>
-      <c r="D189" s="7"/>
-      <c r="E189" s="7">
-        <v>10</v>
-      </c>
-      <c r="F189" s="7"/>
-      <c r="G189" s="7"/>
-      <c r="H189" s="7"/>
-    </row>
-    <row r="190" spans="1:8">
-      <c r="A190" s="8">
-        <v>189</v>
-      </c>
-      <c r="B190" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="C190" s="8"/>
-      <c r="D190" s="8"/>
-      <c r="E190" s="8"/>
-      <c r="F190" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="G190" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="H190" s="8"/>
-    </row>
-    <row r="191" spans="1:8">
-      <c r="A191" s="8">
-        <v>190</v>
-      </c>
-      <c r="B191" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C191" s="7"/>
-      <c r="D191" s="7"/>
-      <c r="E191" s="7">
-        <v>10</v>
-      </c>
-      <c r="F191" s="7"/>
-      <c r="G191" s="7"/>
-      <c r="H191" s="7"/>
-    </row>
-    <row r="192" spans="1:8">
-      <c r="A192" s="8">
-        <v>191</v>
-      </c>
-      <c r="B192" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C192" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D192" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="E192" s="8"/>
-      <c r="F192" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="G192" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="H192" s="8"/>
-    </row>
-    <row r="193" spans="1:8">
-      <c r="A193" s="8">
-        <v>192</v>
-      </c>
-      <c r="B193" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D193" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="E193" s="7"/>
-      <c r="F193" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G193" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="H193" s="7"/>
-    </row>
-    <row r="194" spans="1:8">
-      <c r="A194" s="8">
-        <v>193</v>
-      </c>
-      <c r="B194" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C194" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D194" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="E194" s="8"/>
-      <c r="F194" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="G194" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="H194" s="8"/>
-    </row>
-    <row r="195" spans="1:8">
-      <c r="A195" s="8">
-        <v>194</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C195" s="7"/>
-      <c r="D195" s="7"/>
-      <c r="E195" s="7">
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7">
         <v>4</v>
       </c>
-      <c r="F195" s="7"/>
-      <c r="G195" s="7"/>
-      <c r="H195" s="7"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="9">
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B128">
+      <formula1/>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C147 B148 C148 B149 C149 B4:B13 B14:B15 C7:C9 C14:C15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>[6]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C44 C56 C114 C27:C33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B129 B12:B78 B116:B121 B122:B126 B131:B146 C2:C3 C12:C78 C116:C121 C122:C126 C129:C146">
+      <formula1>[7]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C92 B101 C101 B4:B11 B79:B100 B102:B113 C7:C9 C79:C80 C90:C91 C93:C96 C97:C100 C102:C107 C108:C113">
       <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C76">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C115">
+      <formula1>[2]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114:B115">
       <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C91 B100 C100 B78:B99 B101:B112 C78:C79 C89:C90 C92:C95 C96:C99 C101:C106 C107:C112">
-      <formula1>[7]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B128 B129 B147 C163 B164 C164 C166 B1:B3 B16:B36 B37:B77 B115:B120 B121:B126 B131:B146 B150:B163 B165:B167 B194:B195 C2:C3">
-      <formula1/>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C165 C16:C26">
-      <formula1>[2]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B113:B114">
-      <formula1>[8]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B168:B171 B172:B193">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B147:B148">
       <formula1>[5]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -6716,7 +5598,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>360</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6724,20 +5606,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>361</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>362</v>
+        <v>303</v>
       </c>
       <c r="C3" t="s">
-        <v>363</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>364</v>
+        <v>305</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -6748,20 +5630,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>365</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>366</v>
+        <v>307</v>
       </c>
       <c r="C6" t="s">
-        <v>367</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>368</v>
+        <v>309</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -6769,275 +5651,275 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>369</v>
+        <v>310</v>
       </c>
       <c r="C8" t="s">
-        <v>370</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>371</v>
+        <v>312</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>372</v>
+        <v>313</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>373</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>374</v>
+        <v>315</v>
       </c>
       <c r="C10" t="s">
-        <v>375</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>376</v>
+        <v>317</v>
       </c>
       <c r="C11" t="s">
-        <v>377</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>378</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>379</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>380</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>381</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>382</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>383</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>384</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>385</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>386</v>
+        <v>327</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>373</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>387</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>388</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>389</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>390</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>391</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>392</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>393</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>394</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>395</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>396</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>397</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>398</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>399</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>400</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>401</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>402</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>403</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>404</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>405</v>
+        <v>347</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>406</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>407</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>408</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>409</v>
+        <v>351</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>410</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>411</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>412</v>
+        <v>354</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>414</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>415</v>
+        <v>357</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>417</v>
+        <v>359</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>418</v>
+        <v>360</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>419</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -7047,204 +5929,204 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>420</v>
+        <v>362</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>421</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>422</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>423</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>424</v>
+        <v>366</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>425</v>
+        <v>367</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>426</v>
+        <v>368</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>427</v>
+        <v>370</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>428</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>429</v>
+        <v>372</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>430</v>
+        <v>373</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>373</v>
+        <v>314</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>431</v>
+        <v>374</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>432</v>
+        <v>375</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>373</v>
+        <v>314</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>433</v>
+        <v>376</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>434</v>
+        <v>377</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>435</v>
+        <v>378</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>436</v>
+        <v>379</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>437</v>
+        <v>380</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>373</v>
+        <v>314</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>438</v>
+        <v>381</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>373</v>
+        <v>314</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>439</v>
+        <v>382</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>440</v>
+        <v>383</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>441</v>
+        <v>384</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>442</v>
+        <v>385</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>443</v>
+        <v>386</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>444</v>
+        <v>387</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>445</v>
+        <v>388</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>446</v>
+        <v>389</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>447</v>
+        <v>390</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>448</v>
+        <v>391</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>449</v>
+        <v>392</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>450</v>
+        <v>393</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>451</v>
+        <v>394</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>452</v>
+        <v>395</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>453</v>
+        <v>396</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>454</v>
+        <v>397</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>455</v>
+        <v>398</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>316</v>
+        <v>399</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -7259,12 +6141,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>456</v>
+        <v>400</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>457</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_Provider.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_Provider.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401">
   <si>
     <t>Step No</t>
   </si>
@@ -478,7 +478,7 @@
     <t>APP_PRI_INSURANCE</t>
   </si>
   <si>
-    <t>Con</t>
+    <t>Other</t>
   </si>
   <si>
     <t>Enter Insurance name</t>
@@ -707,9 +707,6 @@
   </si>
   <si>
     <t>PROV_ADDRESS_TYPE</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
   <si>
     <t>selected</t>
@@ -1245,10 +1242,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1282,8 +1279,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1300,9 +1342,40 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1314,16 +1387,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1338,14 +1403,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1353,67 +1411,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1440,7 +1437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1452,13 +1449,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1476,13 +1473,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1494,7 +1491,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1506,19 +1557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1530,25 +1569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1560,19 +1581,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1584,13 +1599,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1602,25 +1611,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1702,32 +1699,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1758,6 +1729,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1775,22 +1770,24 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1802,130 +1799,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2383,8 +2380,8 @@
   <sheetPr/>
   <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="F115" sqref="F115"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4550,13 +4547,13 @@
         <v>224</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="F100" s="7" t="s">
         <v>92</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H100" s="7"/>
     </row>
@@ -4571,13 +4568,13 @@
         <v>20</v>
       </c>
       <c r="D101" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E101" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="F101" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>229</v>
       </c>
       <c r="G101" s="8" t="s">
         <v>132</v>
@@ -4595,7 +4592,7 @@
         <v>15</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
@@ -4613,10 +4610,10 @@
         <v>20</v>
       </c>
       <c r="D103" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E103" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>232</v>
       </c>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
@@ -4633,10 +4630,10 @@
         <v>20</v>
       </c>
       <c r="D104" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E104" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
@@ -4673,7 +4670,7 @@
         <v>15</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E106" s="7">
         <v>9789045678</v>
@@ -4693,7 +4690,7 @@
         <v>15</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E107" s="8">
         <v>21331</v>
@@ -4713,7 +4710,7 @@
         <v>15</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E108" s="7">
         <v>97989898982</v>
@@ -4733,7 +4730,7 @@
         <v>15</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>144</v>
@@ -4753,10 +4750,10 @@
         <v>15</v>
       </c>
       <c r="D110" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E110" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
@@ -4773,7 +4770,7 @@
         <v>15</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>144</v>
@@ -4793,7 +4790,7 @@
         <v>15</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
@@ -4827,7 +4824,7 @@
         <v>20</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
@@ -4887,16 +4884,16 @@
         <v>20</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>148</v>
       </c>
       <c r="F117" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="G117" s="8" t="s">
         <v>245</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>246</v>
       </c>
       <c r="H117" s="8"/>
     </row>
@@ -4927,10 +4924,10 @@
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G119" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G119" s="8" t="s">
-        <v>248</v>
       </c>
       <c r="H119" s="8"/>
     </row>
@@ -4945,14 +4942,14 @@
         <v>20</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E120" s="7"/>
       <c r="F120" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G120" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H120" s="7"/>
     </row>
@@ -4971,10 +4968,10 @@
       </c>
       <c r="E121" s="8"/>
       <c r="F121" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G121" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="G121" s="8" t="s">
-        <v>251</v>
       </c>
       <c r="H121" s="8"/>
     </row>
@@ -5031,14 +5028,14 @@
         <v>20</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E124" s="7"/>
       <c r="F124" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G124" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H124" s="7"/>
     </row>
@@ -5053,7 +5050,7 @@
         <v>20</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
@@ -5087,14 +5084,14 @@
         <v>20</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E127" s="8"/>
       <c r="F127" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G127" s="8" t="s">
         <v>257</v>
-      </c>
-      <c r="G127" s="8" t="s">
-        <v>258</v>
       </c>
       <c r="H127" s="8"/>
     </row>
@@ -5111,10 +5108,10 @@
         <v>5</v>
       </c>
       <c r="F128" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G128" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H128" s="7"/>
     </row>
@@ -5129,14 +5126,14 @@
         <v>20</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="G129" s="8" t="s">
         <v>262</v>
-      </c>
-      <c r="G129" s="8" t="s">
-        <v>263</v>
       </c>
       <c r="H129" s="8"/>
     </row>
@@ -5151,14 +5148,14 @@
         <v>20</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G130" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H130" s="7"/>
     </row>
@@ -5189,16 +5186,16 @@
         <v>15</v>
       </c>
       <c r="D132" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E132" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="E132" s="7" t="s">
+      <c r="F132" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F132" s="7" t="s">
+      <c r="G132" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H132" s="7"/>
     </row>
@@ -5213,16 +5210,16 @@
         <v>15</v>
       </c>
       <c r="D133" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F133" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="E133" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="F133" s="8" t="s">
+      <c r="G133" s="8" t="s">
         <v>272</v>
-      </c>
-      <c r="G133" s="8" t="s">
-        <v>273</v>
       </c>
       <c r="H133" s="8"/>
     </row>
@@ -5237,7 +5234,7 @@
         <v>15</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E134" s="7">
         <v>9889656446</v>
@@ -5261,14 +5258,14 @@
         <v>15</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E135" s="8"/>
       <c r="F135" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G135" s="8" t="s">
         <v>275</v>
-      </c>
-      <c r="G135" s="8" t="s">
-        <v>276</v>
       </c>
       <c r="H135" s="8"/>
     </row>
@@ -5297,20 +5294,20 @@
         <v>136</v>
       </c>
       <c r="B137" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>278</v>
       </c>
       <c r="E137" s="8"/>
       <c r="F137" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="G137" s="8" t="s">
         <v>279</v>
-      </c>
-      <c r="G137" s="8" t="s">
-        <v>280</v>
       </c>
       <c r="H137" s="8"/>
     </row>
@@ -5319,20 +5316,20 @@
         <v>137</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E138" s="7"/>
       <c r="F138" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H138" s="7"/>
     </row>
@@ -5341,20 +5338,20 @@
         <v>138</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E139" s="8"/>
       <c r="F139" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H139" s="8"/>
     </row>
@@ -5363,20 +5360,20 @@
         <v>139</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E140" s="7"/>
       <c r="F140" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H140" s="7"/>
     </row>
@@ -5385,20 +5382,20 @@
         <v>140</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E141" s="8"/>
       <c r="F141" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H141" s="8"/>
     </row>
@@ -5407,20 +5404,20 @@
         <v>141</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E142" s="7"/>
       <c r="F142" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H142" s="7"/>
     </row>
@@ -5429,20 +5426,20 @@
         <v>142</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E143" s="8"/>
       <c r="F143" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H143" s="8"/>
     </row>
@@ -5451,20 +5448,20 @@
         <v>143</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H144" s="7"/>
     </row>
@@ -5479,14 +5476,14 @@
         <v>20</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E145" s="8"/>
       <c r="F145" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="G145" s="8" t="s">
         <v>296</v>
-      </c>
-      <c r="G145" s="8" t="s">
-        <v>297</v>
       </c>
       <c r="H145" s="8"/>
     </row>
@@ -5517,14 +5514,14 @@
         <v>20</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E147" s="8"/>
       <c r="F147" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="G147" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="G147" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H147" s="8"/>
     </row>
@@ -5598,7 +5595,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5606,20 +5603,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C3" t="s">
         <v>303</v>
-      </c>
-      <c r="C3" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5630,20 +5627,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6" t="s">
         <v>307</v>
-      </c>
-      <c r="C6" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5651,47 +5648,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" t="s">
         <v>310</v>
-      </c>
-      <c r="C8" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>314</v>
+      </c>
+      <c r="C10" t="s">
         <v>315</v>
-      </c>
-      <c r="C10" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" t="s">
         <v>317</v>
-      </c>
-      <c r="C11" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5701,12 +5698,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5716,55 +5713,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5774,152 +5771,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5929,204 +5926,204 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6141,12 +6138,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_Provider.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_Provider.xlsx
@@ -1273,13 +1273,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1288,6 +1281,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1308,6 +1308,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1316,9 +1324,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1332,9 +1340,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1348,21 +1378,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1371,17 +1386,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1394,23 +1400,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1437,7 +1437,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,37 +1551,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1491,37 +1587,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1539,85 +1617,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1714,21 +1714,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1740,6 +1725,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1768,20 +1764,24 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1799,130 +1799,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2380,8 +2380,8 @@
   <sheetPr/>
   <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="E134" sqref="E134"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E136" sqref="E136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2687,7 +2687,7 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -2903,7 +2903,7 @@
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>62</v>
@@ -3107,7 +3107,7 @@
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>12</v>
@@ -3373,7 +3373,7 @@
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>12</v>
@@ -3649,7 +3649,7 @@
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>12</v>
@@ -4087,7 +4087,7 @@
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>12</v>
@@ -4863,7 +4863,7 @@
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>12</v>
@@ -5007,7 +5007,7 @@
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
       <c r="E123" s="8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F123" s="8" t="s">
         <v>12</v>
@@ -5279,7 +5279,7 @@
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
       <c r="E136" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>12</v>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_Provider.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_Provider.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13650"/>
+    <workbookView windowWidth="28680" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400">
   <si>
     <t>Step No</t>
   </si>
@@ -382,12 +382,12 @@
     <t>CONTACT_PNONE_NUMBER</t>
   </si>
   <si>
+    <t>SelectByIndex</t>
+  </si>
+  <si>
     <t>CONTACT_SEQUENCE</t>
   </si>
   <si>
-    <t>primary</t>
-  </si>
-  <si>
     <t>APP_AUTHORIZE_PERSON</t>
   </si>
   <si>
@@ -1019,9 +1019,6 @@
   </si>
   <si>
     <t>SelectCheckBox</t>
-  </si>
-  <si>
-    <t>SelectByIndex</t>
   </si>
   <si>
     <t>SelectByValue</t>
@@ -1242,9 +1239,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1273,13 +1270,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1287,7 +1277,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1301,18 +1307,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1326,22 +1325,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1349,15 +1332,45 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1372,14 +1385,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1393,24 +1398,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1437,7 +1434,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,7 +1488,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1461,13 +1554,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1479,67 +1584,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1557,67 +1614,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1681,24 +1678,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1710,6 +1689,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1729,13 +1717,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1749,17 +1750,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1781,7 +1778,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1799,130 +1796,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2380,8 +2377,8 @@
   <sheetPr/>
   <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E136" sqref="E136"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3326,16 +3323,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E44" s="7" t="s">
         <v>117</v>
+      </c>
+      <c r="E44" s="7">
+        <v>1</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
@@ -5580,7 +5577,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -5756,12 +5753,12 @@
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>329</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5771,152 +5768,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5926,62 +5923,62 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>313</v>
@@ -5989,12 +5986,12 @@
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>313</v>
@@ -6002,27 +5999,27 @@
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>313</v>
@@ -6030,7 +6027,7 @@
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>313</v>
@@ -6038,92 +6035,92 @@
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6138,12 +6135,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_Provider.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_Provider.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402">
   <si>
     <t>Step No</t>
   </si>
@@ -478,237 +478,240 @@
     <t>APP_PRI_INSURANCE</t>
   </si>
   <si>
+    <t>Cons</t>
+  </si>
+  <si>
+    <t>Enter Insurance name</t>
+  </si>
+  <si>
+    <t>Insurance entered</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>Select Insurance type</t>
+  </si>
+  <si>
+    <t>Insurance selected</t>
+  </si>
+  <si>
+    <t>APP_PLANTYPE</t>
+  </si>
+  <si>
+    <t>EPO</t>
+  </si>
+  <si>
+    <t>Select Plan type</t>
+  </si>
+  <si>
+    <t>Plan type selected</t>
+  </si>
+  <si>
+    <t>APP_INS_NUMBER</t>
+  </si>
+  <si>
+    <t>Enter Policy number</t>
+  </si>
+  <si>
+    <t>Policy number entered</t>
+  </si>
+  <si>
+    <t>APP_INS_TYPE</t>
+  </si>
+  <si>
+    <t>Medicare</t>
+  </si>
+  <si>
+    <t>Insurance type selected</t>
+  </si>
+  <si>
+    <t>APP_SUBS_NAME</t>
+  </si>
+  <si>
+    <t>Enter Subscriber name</t>
+  </si>
+  <si>
+    <t>Subscriber name entered</t>
+  </si>
+  <si>
+    <t>APP_GROUP_NAME</t>
+  </si>
+  <si>
+    <t>Enter Group name</t>
+  </si>
+  <si>
+    <t>Group name entered</t>
+  </si>
+  <si>
+    <t>APP_SUBS_DOB</t>
+  </si>
+  <si>
+    <t>APP_SUBS_DOB_DATE</t>
+  </si>
+  <si>
+    <t>Select Date</t>
+  </si>
+  <si>
+    <t>Date selected</t>
+  </si>
+  <si>
+    <t>APP_PRIM_TEL</t>
+  </si>
+  <si>
+    <t>Enter Primary Phone number</t>
+  </si>
+  <si>
+    <t>Primary phone number entered</t>
+  </si>
+  <si>
+    <t>APP_PRESCRI_DRUG</t>
+  </si>
+  <si>
+    <t>Click No for Does this plan cover prescription drugs at the pharmacy and provider office?</t>
+  </si>
+  <si>
+    <t>Yes clicked</t>
+  </si>
+  <si>
+    <t>APP_MEDI_SERVICE</t>
+  </si>
+  <si>
+    <t>Co-Pay or Coinsurance for medical services:</t>
+  </si>
+  <si>
+    <t>Entered</t>
+  </si>
+  <si>
+    <t>APP_PHARMACY_BENEFITS</t>
+  </si>
+  <si>
+    <t>Co-Pay or Coinsurance for pharmacy benefits:</t>
+  </si>
+  <si>
+    <t>APP_MEDICARE_PART_NO</t>
+  </si>
+  <si>
+    <t>Do you have Medicare Part D?</t>
+  </si>
+  <si>
+    <t>APP_MEDICARE_SUPP_NO</t>
+  </si>
+  <si>
+    <t>Does the patient have a Medicare Supplement?</t>
+  </si>
+  <si>
+    <t>No clicked</t>
+  </si>
+  <si>
+    <t>APP_SEC_INSURANCE_NO</t>
+  </si>
+  <si>
+    <t>Do you have Secondary Insurance?</t>
+  </si>
+  <si>
+    <t>APP_COBRA _EFFECT_NO</t>
+  </si>
+  <si>
+    <t>Is insurance coverage continuation under COBRA in effect?</t>
+  </si>
+  <si>
+    <t>TRASH_PROVIDER_PAGE</t>
+  </si>
+  <si>
+    <t>Trash old provider</t>
+  </si>
+  <si>
+    <t>Trashed</t>
+  </si>
+  <si>
+    <t>SEARCH_PROVIDER</t>
+  </si>
+  <si>
+    <t>NAME_TAB_ADD_PROVIDER</t>
+  </si>
+  <si>
+    <t>Click Name tab</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_STATE</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Select State from the search popup</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_LASTNAME</t>
+  </si>
+  <si>
+    <t>FACILITY/PRACTICE_NAME</t>
+  </si>
+  <si>
+    <t>Enter Facility name</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_SEARCH</t>
+  </si>
+  <si>
+    <t>Click Search button</t>
+  </si>
+  <si>
+    <t>Search clicked</t>
+  </si>
+  <si>
+    <t>CLICK_HERE_PROVIDER</t>
+  </si>
+  <si>
+    <t>ADD_PROV_FIRST_NAME</t>
+  </si>
+  <si>
+    <t>ADD_PROV_LAST_NAME</t>
+  </si>
+  <si>
+    <t>TenDigitPhone</t>
+  </si>
+  <si>
+    <t>ADD_PROV_NPI</t>
+  </si>
+  <si>
+    <t>Enter NPI</t>
+  </si>
+  <si>
+    <t>ADD_PROV_FACILITY_NAME</t>
+  </si>
+  <si>
+    <t>ADD_PROV_TAXID</t>
+  </si>
+  <si>
+    <t>Enter TaxID</t>
+  </si>
+  <si>
+    <t>PAYMENT_TYPE_EFT</t>
+  </si>
+  <si>
+    <t>Click EFT YEs</t>
+  </si>
+  <si>
+    <t>AUTH_PAYMENT_YES</t>
+  </si>
+  <si>
+    <t>Click Auth Payment YEs</t>
+  </si>
+  <si>
+    <t>AUTH_PHYSICIAN_YES</t>
+  </si>
+  <si>
+    <t>Click Auth physician Yes</t>
+  </si>
+  <si>
+    <t>PROV_ADDRESS_TYPE</t>
+  </si>
+  <si>
     <t>Other</t>
   </si>
   <si>
-    <t>Enter Insurance name</t>
-  </si>
-  <si>
-    <t>Insurance entered</t>
-  </si>
-  <si>
-    <t>Enter</t>
-  </si>
-  <si>
-    <t>Select Insurance type</t>
-  </si>
-  <si>
-    <t>Insurance selected</t>
-  </si>
-  <si>
-    <t>APP_PLANTYPE</t>
-  </si>
-  <si>
-    <t>EPO</t>
-  </si>
-  <si>
-    <t>Select Plan type</t>
-  </si>
-  <si>
-    <t>Plan type selected</t>
-  </si>
-  <si>
-    <t>APP_INS_NUMBER</t>
-  </si>
-  <si>
-    <t>Enter Policy number</t>
-  </si>
-  <si>
-    <t>Policy number entered</t>
-  </si>
-  <si>
-    <t>APP_INS_TYPE</t>
-  </si>
-  <si>
-    <t>Medicare</t>
-  </si>
-  <si>
-    <t>Insurance type selected</t>
-  </si>
-  <si>
-    <t>APP_SUBS_NAME</t>
-  </si>
-  <si>
-    <t>Enter Subscriber name</t>
-  </si>
-  <si>
-    <t>Subscriber name entered</t>
-  </si>
-  <si>
-    <t>APP_GROUP_NAME</t>
-  </si>
-  <si>
-    <t>Enter Group name</t>
-  </si>
-  <si>
-    <t>Group name entered</t>
-  </si>
-  <si>
-    <t>APP_SUBS_DOB</t>
-  </si>
-  <si>
-    <t>APP_SUBS_DOB_DATE</t>
-  </si>
-  <si>
-    <t>Select Date</t>
-  </si>
-  <si>
-    <t>Date selected</t>
-  </si>
-  <si>
-    <t>APP_PRIM_TEL</t>
-  </si>
-  <si>
-    <t>Enter Primary Phone number</t>
-  </si>
-  <si>
-    <t>Primary phone number entered</t>
-  </si>
-  <si>
-    <t>APP_PRESCRI_DRUG</t>
-  </si>
-  <si>
-    <t>Click No for Does this plan cover prescription drugs at the pharmacy and provider office?</t>
-  </si>
-  <si>
-    <t>Yes clicked</t>
-  </si>
-  <si>
-    <t>APP_MEDI_SERVICE</t>
-  </si>
-  <si>
-    <t>Co-Pay or Coinsurance for medical services:</t>
-  </si>
-  <si>
-    <t>Entered</t>
-  </si>
-  <si>
-    <t>APP_PHARMACY_BENEFITS</t>
-  </si>
-  <si>
-    <t>Co-Pay or Coinsurance for pharmacy benefits:</t>
-  </si>
-  <si>
-    <t>APP_MEDICARE_PART_NO</t>
-  </si>
-  <si>
-    <t>Do you have Medicare Part D?</t>
-  </si>
-  <si>
-    <t>APP_MEDICARE_SUPP_NO</t>
-  </si>
-  <si>
-    <t>Does the patient have a Medicare Supplement?</t>
-  </si>
-  <si>
-    <t>No clicked</t>
-  </si>
-  <si>
-    <t>APP_SEC_INSURANCE_NO</t>
-  </si>
-  <si>
-    <t>Do you have Secondary Insurance?</t>
-  </si>
-  <si>
-    <t>APP_COBRA _EFFECT_NO</t>
-  </si>
-  <si>
-    <t>Is insurance coverage continuation under COBRA in effect?</t>
-  </si>
-  <si>
-    <t>TRASH_PROVIDER_PAGE</t>
-  </si>
-  <si>
-    <t>Trash old provider</t>
-  </si>
-  <si>
-    <t>Trashed</t>
-  </si>
-  <si>
-    <t>SEARCH_PROVIDER</t>
-  </si>
-  <si>
-    <t>NAME_TAB_ADD_PROVIDER</t>
-  </si>
-  <si>
-    <t>Click Name tab</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_STATE</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Select State from the search popup</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_LASTNAME</t>
-  </si>
-  <si>
-    <t>FACILITY/PRACTICE_NAME</t>
-  </si>
-  <si>
-    <t>Enter Facility name</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_SEARCH</t>
-  </si>
-  <si>
-    <t>Click Search button</t>
-  </si>
-  <si>
-    <t>Search clicked</t>
-  </si>
-  <si>
-    <t>CLICK_HERE_PROVIDER</t>
-  </si>
-  <si>
-    <t>ADD_PROV_FIRST_NAME</t>
-  </si>
-  <si>
-    <t>ADD_PROV_LAST_NAME</t>
-  </si>
-  <si>
-    <t>TenDigitPhone</t>
-  </si>
-  <si>
-    <t>ADD_PROV_NPI</t>
-  </si>
-  <si>
-    <t>Enter NPI</t>
-  </si>
-  <si>
-    <t>ADD_PROV_FACILITY_NAME</t>
-  </si>
-  <si>
-    <t>ADD_PROV_TAXID</t>
-  </si>
-  <si>
-    <t>Enter TaxID</t>
-  </si>
-  <si>
-    <t>PAYMENT_TYPE_EFT</t>
-  </si>
-  <si>
-    <t>Click EFT YEs</t>
-  </si>
-  <si>
-    <t>AUTH_PAYMENT_YES</t>
-  </si>
-  <si>
-    <t>Click Auth Payment YEs</t>
-  </si>
-  <si>
-    <t>AUTH_PHYSICIAN_YES</t>
-  </si>
-  <si>
-    <t>Click Auth physician Yes</t>
-  </si>
-  <si>
-    <t>PROV_ADDRESS_TYPE</t>
-  </si>
-  <si>
     <t>selected</t>
   </si>
   <si>
@@ -764,6 +767,9 @@
   </si>
   <si>
     <t>PRIMAY_DIAGNOSIS</t>
+  </si>
+  <si>
+    <t>Con</t>
   </si>
   <si>
     <t>Type Primary Diagnosis</t>
@@ -1239,10 +1245,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1276,6 +1282,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1285,7 +1307,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1299,25 +1336,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1332,59 +1383,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1398,16 +1397,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1434,7 +1440,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1446,7 +1572,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1458,7 +1608,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1470,151 +1620,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1678,30 +1684,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1717,17 +1699,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1737,15 +1722,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1775,16 +1751,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1796,130 +1802,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2377,8 +2383,8 @@
   <sheetPr/>
   <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4544,13 +4550,13 @@
         <v>224</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>148</v>
+        <v>225</v>
       </c>
       <c r="F100" s="7" t="s">
         <v>92</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H100" s="7"/>
     </row>
@@ -4565,13 +4571,13 @@
         <v>20</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G101" s="8" t="s">
         <v>132</v>
@@ -4589,7 +4595,7 @@
         <v>15</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
@@ -4607,10 +4613,10 @@
         <v>20</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
@@ -4627,10 +4633,10 @@
         <v>20</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
@@ -4667,7 +4673,7 @@
         <v>15</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E106" s="7">
         <v>9789045678</v>
@@ -4687,7 +4693,7 @@
         <v>15</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E107" s="8">
         <v>21331</v>
@@ -4707,7 +4713,7 @@
         <v>15</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E108" s="7">
         <v>97989898982</v>
@@ -4727,7 +4733,7 @@
         <v>15</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>144</v>
@@ -4747,10 +4753,10 @@
         <v>15</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
@@ -4767,7 +4773,7 @@
         <v>15</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>144</v>
@@ -4787,7 +4793,7 @@
         <v>15</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
@@ -4821,7 +4827,7 @@
         <v>20</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
@@ -4881,16 +4887,16 @@
         <v>20</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>148</v>
+        <v>245</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H117" s="8"/>
     </row>
@@ -4921,10 +4927,10 @@
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H119" s="8"/>
     </row>
@@ -4939,14 +4945,14 @@
         <v>20</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E120" s="7"/>
       <c r="F120" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H120" s="7"/>
     </row>
@@ -4965,10 +4971,10 @@
       </c>
       <c r="E121" s="8"/>
       <c r="F121" s="8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H121" s="8"/>
     </row>
@@ -5025,14 +5031,14 @@
         <v>20</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E124" s="7"/>
       <c r="F124" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H124" s="7"/>
     </row>
@@ -5047,7 +5053,7 @@
         <v>20</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
@@ -5081,14 +5087,14 @@
         <v>20</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E127" s="8"/>
       <c r="F127" s="8" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H127" s="8"/>
     </row>
@@ -5105,10 +5111,10 @@
         <v>5</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H128" s="7"/>
     </row>
@@ -5123,14 +5129,14 @@
         <v>20</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H129" s="8"/>
     </row>
@@ -5145,14 +5151,14 @@
         <v>20</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H130" s="7"/>
     </row>
@@ -5183,16 +5189,16 @@
         <v>15</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H132" s="7"/>
     </row>
@@ -5207,16 +5213,16 @@
         <v>15</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H133" s="8"/>
     </row>
@@ -5231,7 +5237,7 @@
         <v>15</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E134" s="7">
         <v>9889656446</v>
@@ -5255,14 +5261,14 @@
         <v>15</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E135" s="8"/>
       <c r="F135" s="8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H135" s="8"/>
     </row>
@@ -5291,20 +5297,20 @@
         <v>136</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E137" s="8"/>
       <c r="F137" s="8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H137" s="8"/>
     </row>
@@ -5313,20 +5319,20 @@
         <v>137</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E138" s="7"/>
       <c r="F138" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G138" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H138" s="7"/>
     </row>
@@ -5335,20 +5341,20 @@
         <v>138</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E139" s="8"/>
       <c r="F139" s="8" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H139" s="8"/>
     </row>
@@ -5357,20 +5363,20 @@
         <v>139</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E140" s="7"/>
       <c r="F140" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H140" s="7"/>
     </row>
@@ -5379,20 +5385,20 @@
         <v>140</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E141" s="8"/>
       <c r="F141" s="8" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H141" s="8"/>
     </row>
@@ -5401,20 +5407,20 @@
         <v>141</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E142" s="7"/>
       <c r="F142" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H142" s="7"/>
     </row>
@@ -5423,20 +5429,20 @@
         <v>142</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E143" s="8"/>
       <c r="F143" s="8" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H143" s="8"/>
     </row>
@@ -5445,20 +5451,20 @@
         <v>143</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H144" s="7"/>
     </row>
@@ -5473,14 +5479,14 @@
         <v>20</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E145" s="8"/>
       <c r="F145" s="8" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H145" s="8"/>
     </row>
@@ -5511,14 +5517,14 @@
         <v>20</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E147" s="8"/>
       <c r="F147" s="8" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H147" s="8"/>
     </row>
@@ -5592,7 +5598,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5600,20 +5606,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5624,20 +5630,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5645,47 +5651,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C10" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C11" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5695,12 +5701,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5710,45 +5716,45 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -5758,7 +5764,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5768,152 +5774,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5923,204 +5929,204 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6135,12 +6141,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_Provider.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_Provider.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13230"/>
+    <workbookView windowWidth="28680" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400">
   <si>
     <t>Step No</t>
   </si>
@@ -499,9 +500,6 @@
     <t>APP_PLANTYPE</t>
   </si>
   <si>
-    <t>EPO</t>
-  </si>
-  <si>
     <t>Select Plan type</t>
   </si>
   <si>
@@ -518,9 +516,6 @@
   </si>
   <si>
     <t>APP_INS_TYPE</t>
-  </si>
-  <si>
-    <t>Medicare</t>
   </si>
   <si>
     <t>Insurance type selected</t>
@@ -1245,10 +1240,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1275,16 +1270,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1298,46 +1293,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1345,53 +1303,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1412,8 +1323,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1440,7 +1435,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1452,19 +1561,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1482,7 +1603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1494,138 +1615,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1684,6 +1679,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1702,37 +1717,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1753,6 +1739,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1767,24 +1779,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1802,134 +1808,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1939,6 +1945,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2091,6 +2098,21 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2383,8 +2405,8 @@
   <sheetPr/>
   <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3724,8 +3746,8 @@
       <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>39</v>
+      <c r="B62" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>20</v>
@@ -3733,14 +3755,14 @@
       <c r="D62" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="7">
+        <v>1</v>
+      </c>
+      <c r="F62" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="G62" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H62" s="7"/>
     </row>
@@ -3755,14 +3777,14 @@
         <v>15</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G63" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>160</v>
       </c>
       <c r="H63" s="8"/>
     </row>
@@ -3770,23 +3792,23 @@
       <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>39</v>
+      <c r="B64" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
+      </c>
+      <c r="E64" s="7">
+        <v>1</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>152</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H64" s="7"/>
     </row>
@@ -3801,14 +3823,14 @@
         <v>15</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H65" s="8"/>
     </row>
@@ -3823,16 +3845,16 @@
         <v>15</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E66" s="7">
         <v>1235647899</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H66" s="7"/>
     </row>
@@ -3847,7 +3869,7 @@
         <v>20</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
@@ -3865,14 +3887,14 @@
         <v>20</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H68" s="7"/>
     </row>
@@ -3887,16 +3909,16 @@
         <v>15</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E69" s="8">
         <v>97890456789</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H69" s="8"/>
     </row>
@@ -3911,14 +3933,14 @@
         <v>20</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H70" s="7"/>
     </row>
@@ -3933,16 +3955,16 @@
         <v>20</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E71" s="8">
         <v>1230</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H71" s="8"/>
     </row>
@@ -3957,16 +3979,16 @@
         <v>20</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E72" s="7">
         <v>1550</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H72" s="7"/>
     </row>
@@ -3981,14 +4003,14 @@
         <v>20</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H73" s="8"/>
     </row>
@@ -4003,14 +4025,14 @@
         <v>20</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H74" s="7"/>
     </row>
@@ -4025,14 +4047,14 @@
         <v>20</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H75" s="8"/>
     </row>
@@ -4047,14 +4069,14 @@
         <v>20</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H76" s="7"/>
     </row>
@@ -4111,14 +4133,14 @@
         <v>20</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H79" s="8"/>
     </row>
@@ -4153,12 +4175,12 @@
         <v>15</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H81" s="8"/>
     </row>
@@ -4189,11 +4211,11 @@
         <v>20</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G83" s="8" t="s">
         <v>35</v>
@@ -4227,13 +4249,13 @@
         <v>20</v>
       </c>
       <c r="D85" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F85" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>202</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>103</v>
@@ -4251,7 +4273,7 @@
         <v>15</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="7" t="s">
@@ -4273,14 +4295,14 @@
         <v>15</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H87" s="8"/>
     </row>
@@ -4295,14 +4317,14 @@
         <v>15</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E88" s="7"/>
       <c r="F88" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H88" s="7"/>
     </row>
@@ -4337,7 +4359,7 @@
         <v>20</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
@@ -4371,7 +4393,7 @@
         <v>20</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="7" t="s">
@@ -4393,7 +4415,7 @@
         <v>20</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8" t="s">
@@ -4409,20 +4431,20 @@
         <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H94" s="7"/>
     </row>
@@ -4437,14 +4459,14 @@
         <v>20</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H95" s="8"/>
     </row>
@@ -4453,20 +4475,20 @@
         <v>95</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E96" s="7"/>
       <c r="F96" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H96" s="7"/>
     </row>
@@ -4481,11 +4503,11 @@
         <v>20</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>35</v>
@@ -4503,11 +4525,11 @@
         <v>20</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E98" s="7"/>
       <c r="F98" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>35</v>
@@ -4525,11 +4547,11 @@
         <v>20</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G99" s="8" t="s">
         <v>35</v>
@@ -4547,16 +4569,16 @@
         <v>20</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F100" s="7" t="s">
         <v>92</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H100" s="7"/>
     </row>
@@ -4571,13 +4593,13 @@
         <v>20</v>
       </c>
       <c r="D101" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="F101" s="8" t="s">
         <v>227</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>229</v>
       </c>
       <c r="G101" s="8" t="s">
         <v>132</v>
@@ -4595,7 +4617,7 @@
         <v>15</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
@@ -4613,10 +4635,10 @@
         <v>20</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
@@ -4633,10 +4655,10 @@
         <v>20</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
@@ -4673,7 +4695,7 @@
         <v>15</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E106" s="7">
         <v>9789045678</v>
@@ -4693,7 +4715,7 @@
         <v>15</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E107" s="8">
         <v>21331</v>
@@ -4713,7 +4735,7 @@
         <v>15</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E108" s="7">
         <v>97989898982</v>
@@ -4733,7 +4755,7 @@
         <v>15</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>144</v>
@@ -4753,10 +4775,10 @@
         <v>15</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
@@ -4773,7 +4795,7 @@
         <v>15</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>144</v>
@@ -4793,7 +4815,7 @@
         <v>15</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
@@ -4827,7 +4849,7 @@
         <v>20</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
@@ -4887,16 +4909,16 @@
         <v>20</v>
       </c>
       <c r="D117" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F117" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="E117" s="8" t="s">
+      <c r="G117" s="8" t="s">
         <v>245</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>247</v>
       </c>
       <c r="H117" s="8"/>
     </row>
@@ -4927,10 +4949,10 @@
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H119" s="8"/>
     </row>
@@ -4945,14 +4967,14 @@
         <v>20</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E120" s="7"/>
       <c r="F120" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H120" s="7"/>
     </row>
@@ -4967,14 +4989,14 @@
         <v>20</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E121" s="8"/>
       <c r="F121" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H121" s="8"/>
     </row>
@@ -5031,14 +5053,14 @@
         <v>20</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E124" s="7"/>
       <c r="F124" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H124" s="7"/>
     </row>
@@ -5053,7 +5075,7 @@
         <v>20</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
@@ -5087,14 +5109,14 @@
         <v>20</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E127" s="8"/>
       <c r="F127" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H127" s="8"/>
     </row>
@@ -5111,10 +5133,10 @@
         <v>5</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H128" s="7"/>
     </row>
@@ -5129,14 +5151,14 @@
         <v>20</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H129" s="8"/>
     </row>
@@ -5151,14 +5173,14 @@
         <v>20</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H130" s="7"/>
     </row>
@@ -5189,16 +5211,16 @@
         <v>15</v>
       </c>
       <c r="D132" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F132" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="E132" s="7" t="s">
+      <c r="G132" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F132" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H132" s="7"/>
     </row>
@@ -5213,16 +5235,16 @@
         <v>15</v>
       </c>
       <c r="D133" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G133" s="8" t="s">
         <v>272</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="F133" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="G133" s="8" t="s">
-        <v>274</v>
       </c>
       <c r="H133" s="8"/>
     </row>
@@ -5237,7 +5259,7 @@
         <v>15</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E134" s="7">
         <v>9889656446</v>
@@ -5261,14 +5283,14 @@
         <v>15</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E135" s="8"/>
       <c r="F135" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H135" s="8"/>
     </row>
@@ -5297,20 +5319,20 @@
         <v>136</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E137" s="8"/>
       <c r="F137" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H137" s="8"/>
     </row>
@@ -5319,20 +5341,20 @@
         <v>137</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E138" s="7"/>
       <c r="F138" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H138" s="7"/>
     </row>
@@ -5341,20 +5363,20 @@
         <v>138</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E139" s="8"/>
       <c r="F139" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H139" s="8"/>
     </row>
@@ -5363,20 +5385,20 @@
         <v>139</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E140" s="7"/>
       <c r="F140" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H140" s="7"/>
     </row>
@@ -5385,20 +5407,20 @@
         <v>140</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E141" s="8"/>
       <c r="F141" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H141" s="8"/>
     </row>
@@ -5407,20 +5429,20 @@
         <v>141</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E142" s="7"/>
       <c r="F142" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H142" s="7"/>
     </row>
@@ -5429,20 +5451,20 @@
         <v>142</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E143" s="8"/>
       <c r="F143" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H143" s="8"/>
     </row>
@@ -5451,20 +5473,20 @@
         <v>143</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H144" s="7"/>
     </row>
@@ -5479,14 +5501,14 @@
         <v>20</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E145" s="8"/>
       <c r="F145" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H145" s="8"/>
     </row>
@@ -5517,14 +5539,14 @@
         <v>20</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E147" s="8"/>
       <c r="F147" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H147" s="8"/>
     </row>
@@ -5545,7 +5567,7 @@
       <c r="H148" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B128">
       <formula1/>
     </dataValidation>
@@ -5555,11 +5577,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>[6]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B129 B12:B78 B116:B121 B122:B126 B131:B146 C2:C3 C12:C78 C116:C121 C122:C126 C129:C146">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B63 B129 B12:B61 B65:B78 B116:B121 B122:B126 B131:B146 C2:C3 C12:C78 C116:C121 C122:C126 C129:C146">
       <formula1>[7]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C92 B101 C101 B4:B11 B79:B100 B102:B113 C7:C9 C79:C80 C90:C91 C93:C96 C97:C100 C102:C107 C108:C113">
       <formula1>[3]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62 B64">
+      <formula1>[8]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C115">
       <formula1>[2]DataList!#REF!</formula1>
@@ -5598,7 +5623,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5606,20 +5631,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5630,20 +5655,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5651,47 +5676,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5701,12 +5726,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5716,45 +5741,45 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -5764,7 +5789,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5774,152 +5799,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5929,204 +5954,204 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6141,12 +6166,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_Provider.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_Provider.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13650"/>
+    <workbookView windowWidth="28680" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398">
   <si>
     <t>Step No</t>
   </si>
@@ -335,108 +335,108 @@
     <t>add 2 entered</t>
   </si>
   <si>
+    <t>SelectByIndex</t>
+  </si>
+  <si>
     <t>CONTACT_STATE</t>
   </si>
   <si>
+    <t>Select state</t>
+  </si>
+  <si>
+    <t>State selected</t>
+  </si>
+  <si>
+    <t>CONTACT_CITY</t>
+  </si>
+  <si>
+    <t>Sacramento</t>
+  </si>
+  <si>
+    <t>Enter CIty</t>
+  </si>
+  <si>
+    <t>City entered</t>
+  </si>
+  <si>
+    <t>CONTACT_ZIPCODE</t>
+  </si>
+  <si>
+    <t>APP_COUNTRY</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Enter Country</t>
+  </si>
+  <si>
+    <t>Coutry entered</t>
+  </si>
+  <si>
+    <t>CONTACT_PHONE_TYPE</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>CONTACT_PNONE_NUMBER</t>
+  </si>
+  <si>
+    <t>CONTACT_SEQUENCE</t>
+  </si>
+  <si>
+    <t>APP_AUTHORIZE_PERSON</t>
+  </si>
+  <si>
+    <t>APP_AUTHORIZE_FNAME</t>
+  </si>
+  <si>
+    <t>TestingBab</t>
+  </si>
+  <si>
+    <t>Enter First  name</t>
+  </si>
+  <si>
+    <t>APP_AUTHORIZE_LNAME</t>
+  </si>
+  <si>
+    <t>bab</t>
+  </si>
+  <si>
+    <t>Enter Last name</t>
+  </si>
+  <si>
+    <t>APP_AUTHO_RELATIONSHIP</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Select Relationship</t>
+  </si>
+  <si>
+    <t>Relationship selected</t>
+  </si>
+  <si>
+    <t>APP_AUTHO_ADDRESS1</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Address </t>
+  </si>
+  <si>
+    <t>Address entered</t>
+  </si>
+  <si>
+    <t>APP_AUTHO_STATE</t>
+  </si>
+  <si>
     <t>California</t>
   </si>
   <si>
-    <t>Select state</t>
-  </si>
-  <si>
-    <t>State selected</t>
-  </si>
-  <si>
-    <t>CONTACT_CITY</t>
-  </si>
-  <si>
-    <t>Sacramento</t>
-  </si>
-  <si>
-    <t>Enter CIty</t>
-  </si>
-  <si>
-    <t>City entered</t>
-  </si>
-  <si>
-    <t>CONTACT_ZIPCODE</t>
-  </si>
-  <si>
-    <t>APP_COUNTRY</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Enter Country</t>
-  </si>
-  <si>
-    <t>Coutry entered</t>
-  </si>
-  <si>
-    <t>CONTACT_PHONE_TYPE</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>CONTACT_PNONE_NUMBER</t>
-  </si>
-  <si>
-    <t>SelectByIndex</t>
-  </si>
-  <si>
-    <t>CONTACT_SEQUENCE</t>
-  </si>
-  <si>
-    <t>APP_AUTHORIZE_PERSON</t>
-  </si>
-  <si>
-    <t>APP_AUTHORIZE_FNAME</t>
-  </si>
-  <si>
-    <t>TestingBab</t>
-  </si>
-  <si>
-    <t>Enter First  name</t>
-  </si>
-  <si>
-    <t>APP_AUTHORIZE_LNAME</t>
-  </si>
-  <si>
-    <t>bab</t>
-  </si>
-  <si>
-    <t>Enter Last name</t>
-  </si>
-  <si>
-    <t>APP_AUTHO_RELATIONSHIP</t>
-  </si>
-  <si>
-    <t>Family</t>
-  </si>
-  <si>
-    <t>Select Relationship</t>
-  </si>
-  <si>
-    <t>Relationship selected</t>
-  </si>
-  <si>
-    <t>APP_AUTHO_ADDRESS1</t>
-  </si>
-  <si>
-    <t>Street</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter Address </t>
-  </si>
-  <si>
-    <t>Address entered</t>
-  </si>
-  <si>
-    <t>APP_AUTHO_STATE</t>
-  </si>
-  <si>
     <t>Select State</t>
   </si>
   <si>
@@ -632,9 +632,6 @@
     <t>SEARCH_PROV_STATE</t>
   </si>
   <si>
-    <t>Alabama</t>
-  </si>
-  <si>
     <t>Select State from the search popup</t>
   </si>
   <si>
@@ -723,9 +720,6 @@
   </si>
   <si>
     <t>ADD_PROV_PATIENT_STATE</t>
-  </si>
-  <si>
-    <t>Alaska</t>
   </si>
   <si>
     <t>ADD_PROV_CITY</t>
@@ -1240,10 +1234,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1270,6 +1264,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1278,15 +1308,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1309,7 +1332,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1318,6 +1356,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1339,15 +1385,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1363,52 +1403,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1435,7 +1429,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1447,7 +1507,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1459,19 +1543,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1483,7 +1573,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1495,132 +1609,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1679,13 +1673,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1695,6 +1693,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1738,21 +1745,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1778,19 +1770,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1808,134 +1791,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1945,7 +1928,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2405,8 +2387,8 @@
   <sheetPr/>
   <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3215,16 +3197,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E38" s="7" t="s">
         <v>101</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>102</v>
@@ -3351,13 +3333,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="E44" s="7">
         <v>1</v>
@@ -3419,7 +3401,7 @@
         <v>20</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
@@ -3437,13 +3419,13 @@
         <v>15</v>
       </c>
       <c r="D48" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="F48" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>28</v>
@@ -3461,13 +3443,13 @@
         <v>15</v>
       </c>
       <c r="D49" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E49" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="F49" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>124</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>32</v>
@@ -3485,16 +3467,16 @@
         <v>20</v>
       </c>
       <c r="D50" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="F50" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H50" s="7"/>
     </row>
@@ -3509,16 +3491,16 @@
         <v>15</v>
       </c>
       <c r="D51" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="F51" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="G51" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="H51" s="8"/>
     </row>
@@ -3533,10 +3515,10 @@
         <v>20</v>
       </c>
       <c r="D52" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>134</v>
@@ -3746,8 +3728,8 @@
       <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>116</v>
+      <c r="B62" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>20</v>
@@ -3792,8 +3774,8 @@
       <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>116</v>
+      <c r="B64" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>20</v>
@@ -4243,7 +4225,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>20</v>
@@ -4251,11 +4233,11 @@
       <c r="D85" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="8">
+        <v>1</v>
+      </c>
+      <c r="F85" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>200</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>103</v>
@@ -4273,11 +4255,11 @@
         <v>15</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>32</v>
@@ -4295,11 +4277,11 @@
         <v>15</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G87" s="8" t="s">
         <v>180</v>
@@ -4317,14 +4299,14 @@
         <v>15</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E88" s="7"/>
       <c r="F88" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G88" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H88" s="7"/>
     </row>
@@ -4359,7 +4341,7 @@
         <v>20</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
@@ -4393,11 +4375,11 @@
         <v>20</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>28</v>
@@ -4415,7 +4397,7 @@
         <v>20</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8" t="s">
@@ -4431,17 +4413,17 @@
         <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>180</v>
@@ -4459,11 +4441,11 @@
         <v>20</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>180</v>
@@ -4475,17 +4457,17 @@
         <v>95</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" s="7"/>
       <c r="F96" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>180</v>
@@ -4503,11 +4485,11 @@
         <v>20</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>35</v>
@@ -4525,11 +4507,11 @@
         <v>20</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E98" s="7"/>
       <c r="F98" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>35</v>
@@ -4547,11 +4529,11 @@
         <v>20</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G99" s="8" t="s">
         <v>35</v>
@@ -4569,16 +4551,16 @@
         <v>20</v>
       </c>
       <c r="D100" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E100" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="F100" s="7" t="s">
         <v>92</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H100" s="7"/>
     </row>
@@ -4593,16 +4575,16 @@
         <v>20</v>
       </c>
       <c r="D101" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E101" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="F101" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="F101" s="8" t="s">
-        <v>227</v>
-      </c>
       <c r="G101" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H101" s="8"/>
     </row>
@@ -4617,7 +4599,7 @@
         <v>15</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
@@ -4629,16 +4611,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
+      </c>
+      <c r="E103" s="8">
+        <v>1</v>
       </c>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
@@ -4655,10 +4637,10 @@
         <v>20</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
@@ -4695,7 +4677,7 @@
         <v>15</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E106" s="7">
         <v>9789045678</v>
@@ -4715,7 +4697,7 @@
         <v>15</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E107" s="8">
         <v>21331</v>
@@ -4735,7 +4717,7 @@
         <v>15</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E108" s="7">
         <v>97989898982</v>
@@ -4755,7 +4737,7 @@
         <v>15</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>144</v>
@@ -4775,10 +4757,10 @@
         <v>15</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
@@ -4795,7 +4777,7 @@
         <v>15</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>144</v>
@@ -4815,7 +4797,7 @@
         <v>15</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
@@ -4849,7 +4831,7 @@
         <v>20</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
@@ -4909,16 +4891,16 @@
         <v>20</v>
       </c>
       <c r="D117" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F117" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="E117" s="8" t="s">
+      <c r="G117" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>245</v>
       </c>
       <c r="H117" s="8"/>
     </row>
@@ -4949,10 +4931,10 @@
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H119" s="8"/>
     </row>
@@ -4967,14 +4949,14 @@
         <v>20</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E120" s="7"/>
       <c r="F120" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H120" s="7"/>
     </row>
@@ -4993,10 +4975,10 @@
       </c>
       <c r="E121" s="8"/>
       <c r="F121" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H121" s="8"/>
     </row>
@@ -5053,14 +5035,14 @@
         <v>20</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E124" s="7"/>
       <c r="F124" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H124" s="7"/>
     </row>
@@ -5075,7 +5057,7 @@
         <v>20</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
@@ -5109,14 +5091,14 @@
         <v>20</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E127" s="8"/>
       <c r="F127" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H127" s="8"/>
     </row>
@@ -5133,10 +5115,10 @@
         <v>5</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H128" s="7"/>
     </row>
@@ -5151,14 +5133,14 @@
         <v>20</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H129" s="8"/>
     </row>
@@ -5173,14 +5155,14 @@
         <v>20</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H130" s="7"/>
     </row>
@@ -5211,16 +5193,16 @@
         <v>15</v>
       </c>
       <c r="D132" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F132" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="E132" s="7" t="s">
+      <c r="G132" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F132" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H132" s="7"/>
     </row>
@@ -5235,16 +5217,16 @@
         <v>15</v>
       </c>
       <c r="D133" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G133" s="8" t="s">
         <v>270</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="F133" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="G133" s="8" t="s">
-        <v>272</v>
       </c>
       <c r="H133" s="8"/>
     </row>
@@ -5259,7 +5241,7 @@
         <v>15</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E134" s="7">
         <v>9889656446</v>
@@ -5283,14 +5265,14 @@
         <v>15</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E135" s="8"/>
       <c r="F135" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H135" s="8"/>
     </row>
@@ -5319,20 +5301,20 @@
         <v>136</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E137" s="8"/>
       <c r="F137" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H137" s="8"/>
     </row>
@@ -5341,20 +5323,20 @@
         <v>137</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E138" s="7"/>
       <c r="F138" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H138" s="7"/>
     </row>
@@ -5363,20 +5345,20 @@
         <v>138</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E139" s="8"/>
       <c r="F139" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H139" s="8"/>
     </row>
@@ -5385,20 +5367,20 @@
         <v>139</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E140" s="7"/>
       <c r="F140" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H140" s="7"/>
     </row>
@@ -5407,20 +5389,20 @@
         <v>140</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E141" s="8"/>
       <c r="F141" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H141" s="8"/>
     </row>
@@ -5429,20 +5411,20 @@
         <v>141</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E142" s="7"/>
       <c r="F142" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H142" s="7"/>
     </row>
@@ -5451,20 +5433,20 @@
         <v>142</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E143" s="8"/>
       <c r="F143" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H143" s="8"/>
     </row>
@@ -5473,20 +5455,20 @@
         <v>143</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H144" s="7"/>
     </row>
@@ -5501,14 +5483,14 @@
         <v>20</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E145" s="8"/>
       <c r="F145" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H145" s="8"/>
     </row>
@@ -5539,14 +5521,14 @@
         <v>20</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E147" s="8"/>
       <c r="F147" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H147" s="8"/>
     </row>
@@ -5623,7 +5605,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5631,20 +5613,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5655,20 +5637,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5676,47 +5658,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5726,12 +5708,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5741,55 +5723,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5799,152 +5781,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5954,204 +5936,204 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6166,12 +6148,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_Provider.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_Provider.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13230"/>
+    <workbookView windowWidth="28680" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
     <t>PATIENT_FUND_NAME</t>
   </si>
   <si>
-    <t>Breast Cancer Silo*</t>
+    <t>Hepatitis C***</t>
   </si>
   <si>
     <t>Enter fund name</t>
@@ -1234,10 +1234,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1265,46 +1265,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1324,6 +1287,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1332,7 +1304,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1345,6 +1339,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1353,17 +1355,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1392,21 +1407,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -1429,19 +1429,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1453,43 +1483,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1507,7 +1519,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1519,13 +1531,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1537,43 +1573,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1585,31 +1609,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1673,6 +1673,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1688,34 +1712,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1747,6 +1753,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1755,31 +1770,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1791,130 +1791,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2388,7 +2388,7 @@
   <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_Provider.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_Provider.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13650"/>
+    <workbookView windowWidth="27795" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379">
   <si>
     <t>Step No</t>
   </si>
@@ -80,36 +80,33 @@
     <t>SSN9Digit</t>
   </si>
   <si>
+    <t>Enter SSN</t>
+  </si>
+  <si>
+    <t>SSN entered</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>ByXPath</t>
+  </si>
+  <si>
+    <t>SEARCH_BUTTON_LINK</t>
+  </si>
+  <si>
+    <t>Click Search</t>
+  </si>
+  <si>
+    <t>Search button clicked</t>
+  </si>
+  <si>
+    <t>TypeDynamicAlpha</t>
+  </si>
+  <si>
     <t>ByID</t>
   </si>
   <si>
-    <t>SSN_FIELD</t>
-  </si>
-  <si>
-    <t>Enter SSN</t>
-  </si>
-  <si>
-    <t>SSN entered</t>
-  </si>
-  <si>
-    <t>Click</t>
-  </si>
-  <si>
-    <t>ByXPath</t>
-  </si>
-  <si>
-    <t>SEARCH_BUTTON_LINK</t>
-  </si>
-  <si>
-    <t>Click Search</t>
-  </si>
-  <si>
-    <t>Search button clicked</t>
-  </si>
-  <si>
-    <t>TypeDynamicAlpha</t>
-  </si>
-  <si>
     <t>FIRST_NAME_FIELD</t>
   </si>
   <si>
@@ -293,9 +290,6 @@
     <t>Marital Status selected</t>
   </si>
   <si>
-    <t>Are you residing in the United States or a United States territory?</t>
-  </si>
-  <si>
     <t>NEXT_BUTTON</t>
   </si>
   <si>
@@ -857,151 +851,100 @@
     <t>Sign and submit button clicked</t>
   </si>
   <si>
+    <t>RETURN_HOME</t>
+  </si>
+  <si>
+    <t>Click on return home</t>
+  </si>
+  <si>
+    <t>Return home clicked</t>
+  </si>
+  <si>
+    <t>PATIENT_LOGOUT</t>
+  </si>
+  <si>
+    <t>Click on logout</t>
+  </si>
+  <si>
+    <t>Logout successfully</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>GetUrl</t>
+  </si>
+  <si>
+    <t>ByName</t>
+  </si>
+  <si>
+    <t>NavigateToURL</t>
+  </si>
+  <si>
+    <t>ByOrName</t>
+  </si>
+  <si>
+    <t>WaitTime</t>
+  </si>
+  <si>
+    <t>ByLinkText</t>
+  </si>
+  <si>
+    <t>Maximize</t>
+  </si>
+  <si>
+    <t>ByTagName</t>
+  </si>
+  <si>
+    <t>ByClassName</t>
+  </si>
+  <si>
+    <t>ActionClick</t>
+  </si>
+  <si>
+    <t>ByCssSelector</t>
+  </si>
+  <si>
+    <t>JsClick</t>
+  </si>
+  <si>
+    <t>Normal Xpath</t>
+  </si>
+  <si>
+    <t>ByPartialLinkText</t>
+  </si>
+  <si>
+    <t>DoubleClick</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>ClickAt</t>
+  </si>
+  <si>
+    <t>ClickAndHold</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>ClearAndType</t>
+  </si>
+  <si>
+    <t>ActionType</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>MouseOver</t>
+  </si>
+  <si>
+    <t>MouseOverAndClick</t>
+  </si>
+  <si>
     <t>GetText</t>
-  </si>
-  <si>
-    <t>SUBMIT_PATIENT_NAME</t>
-  </si>
-  <si>
-    <t>Get Patient Name</t>
-  </si>
-  <si>
-    <t>Retrieved succussfully</t>
-  </si>
-  <si>
-    <t>SUBMIT_FUND_NAME</t>
-  </si>
-  <si>
-    <t>Get Fund Name</t>
-  </si>
-  <si>
-    <t>SUBMIT_AWARD_PERIOD_FROM</t>
-  </si>
-  <si>
-    <t>Get award period from</t>
-  </si>
-  <si>
-    <t>SUBMIT_AWARD_PERIOD_TO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get award period to </t>
-  </si>
-  <si>
-    <t>SUBMIT_CARDHOLDER</t>
-  </si>
-  <si>
-    <t>Get cardholder</t>
-  </si>
-  <si>
-    <t>SUBMIT_BIN</t>
-  </si>
-  <si>
-    <t>Get BIN</t>
-  </si>
-  <si>
-    <t>SUBMIT_PCN</t>
-  </si>
-  <si>
-    <t>Get PCN</t>
-  </si>
-  <si>
-    <t>SUBMIT_GROUP</t>
-  </si>
-  <si>
-    <t>Get group</t>
-  </si>
-  <si>
-    <t>RETURN_HOME</t>
-  </si>
-  <si>
-    <t>Click on return home</t>
-  </si>
-  <si>
-    <t>Return home clicked</t>
-  </si>
-  <si>
-    <t>PATIENT_LOGOUT</t>
-  </si>
-  <si>
-    <t>Click on logout</t>
-  </si>
-  <si>
-    <t>Logout successfully</t>
-  </si>
-  <si>
-    <t>Actions</t>
-  </si>
-  <si>
-    <t>GetUrl</t>
-  </si>
-  <si>
-    <t>ByName</t>
-  </si>
-  <si>
-    <t>NavigateToURL</t>
-  </si>
-  <si>
-    <t>ByOrName</t>
-  </si>
-  <si>
-    <t>WaitTime</t>
-  </si>
-  <si>
-    <t>ByLinkText</t>
-  </si>
-  <si>
-    <t>Maximize</t>
-  </si>
-  <si>
-    <t>ByTagName</t>
-  </si>
-  <si>
-    <t>ByClassName</t>
-  </si>
-  <si>
-    <t>ActionClick</t>
-  </si>
-  <si>
-    <t>ByCssSelector</t>
-  </si>
-  <si>
-    <t>JsClick</t>
-  </si>
-  <si>
-    <t>Normal Xpath</t>
-  </si>
-  <si>
-    <t>ByPartialLinkText</t>
-  </si>
-  <si>
-    <t>DoubleClick</t>
-  </si>
-  <si>
-    <t>Xpath</t>
-  </si>
-  <si>
-    <t>ClickAt</t>
-  </si>
-  <si>
-    <t>ClickAndHold</t>
-  </si>
-  <si>
-    <t>Clear</t>
-  </si>
-  <si>
-    <t>ClearAndType</t>
-  </si>
-  <si>
-    <t>ActionType</t>
-  </si>
-  <si>
-    <t>Submit</t>
-  </si>
-  <si>
-    <t>MouseOver</t>
-  </si>
-  <si>
-    <t>MouseOverAndClick</t>
   </si>
   <si>
     <t>GetAttribute</t>
@@ -1234,10 +1177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1271,17 +1214,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1295,16 +1244,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1312,28 +1253,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1349,36 +1276,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1392,6 +1290,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1400,11 +1306,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1429,7 +1372,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1441,7 +1420,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1453,7 +1534,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1466,150 +1553,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1673,30 +1616,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1712,26 +1631,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1747,6 +1651,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1770,16 +1689,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1791,130 +1734,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2385,10 +2328,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2475,18 +2418,14 @@
       <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -2495,20 +2434,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" s="8"/>
     </row>
@@ -2533,22 +2472,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -2557,22 +2496,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="H8" s="7"/>
     </row>
@@ -2581,20 +2520,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="H9" s="8"/>
     </row>
@@ -2603,13 +2542,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -2637,13 +2576,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -2671,13 +2610,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -2705,22 +2644,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H16" s="7"/>
     </row>
@@ -2745,22 +2684,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E18" s="7">
         <v>2</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="H18" s="7"/>
     </row>
@@ -2769,22 +2708,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="8">
         <v>1000</v>
       </c>
       <c r="F19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="H19" s="8"/>
     </row>
@@ -2793,20 +2732,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H20" s="7"/>
     </row>
@@ -2815,20 +2754,20 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -2837,20 +2776,20 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H22" s="7"/>
     </row>
@@ -2859,22 +2798,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="8">
         <v>10001</v>
       </c>
       <c r="F23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="H23" s="8"/>
     </row>
@@ -2883,20 +2822,20 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H24" s="7"/>
     </row>
@@ -2913,7 +2852,7 @@
         <v>10</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>13</v>
@@ -2925,16 +2864,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -2945,22 +2884,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="F27" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="G27" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="H27" s="8"/>
     </row>
@@ -2969,22 +2908,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="F28" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H28" s="7"/>
     </row>
@@ -2993,22 +2932,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="F29" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="G29" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="H29" s="8"/>
     </row>
@@ -3017,2540 +2956,2342 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D30" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="F30" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="8">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="8" t="s">
+      <c r="E31" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="F31" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="G31" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7" t="s">
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H32" s="7"/>
+      <c r="G32" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="8">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H33" s="8"/>
+      <c r="B33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7">
+        <v>10</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7">
-        <v>10</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="7"/>
+      <c r="B34" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F35" s="8" t="s">
+      <c r="B35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="E35" s="7"/>
+      <c r="F35" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="8"/>
+      <c r="G35" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7" t="s">
+      <c r="B36" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="H36" s="7"/>
+      <c r="G36" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="8">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="C37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H37" s="8"/>
+      <c r="E37" s="7">
+        <v>1</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="7">
+      <c r="A38" s="8">
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1</v>
-      </c>
-      <c r="F38" s="7" t="s">
+      <c r="B38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="E38" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H38" s="7"/>
+      <c r="F38" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="8">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F39" s="8" t="s">
+      <c r="B39" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G39" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="H39" s="8"/>
+      <c r="E39" s="7">
+        <v>10001</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="7" t="s">
+      <c r="B40" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E40" s="7">
-        <v>10001</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H40" s="7"/>
+      <c r="F40" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F41" s="8" t="s">
+      <c r="B41" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="E41" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H41" s="8"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="7" t="s">
+      <c r="B42" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="8">
+        <v>9876543210</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="8">
-        <v>42</v>
-      </c>
-      <c r="B43" s="8" t="s">
+      <c r="E43" s="7">
+        <v>1</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43" s="8">
-        <v>9876543210</v>
-      </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="7">
-        <v>43</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E44" s="7">
-        <v>1</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="8">
-        <v>44</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H45" s="8"/>
+      <c r="B45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7">
+        <v>10</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7">
-        <v>10</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="7"/>
+      <c r="B46" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="8">
         <v>46</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="8" t="s">
+      <c r="B47" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
+      <c r="F47" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E48" s="7" t="s">
+      <c r="B48" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="E48" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G48" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H48" s="7"/>
+      <c r="F48" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="8">
+      <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E49" s="8" t="s">
+      <c r="B49" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="E49" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G49" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H49" s="8"/>
+      <c r="F49" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H49" s="7"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="7">
+      <c r="A50" s="8">
         <v>49</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F50" s="7" t="s">
+      <c r="B50" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="E50" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H50" s="7"/>
+      <c r="F50" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H50" s="8"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="8">
+      <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F51" s="8" t="s">
+      <c r="B51" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="E51" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H51" s="8"/>
+      <c r="F51" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E52" s="7" t="s">
+      <c r="B52" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="E52" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="G52" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H52" s="7"/>
+      <c r="G52" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="8">
         <v>52</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="8" t="s">
+      <c r="B53" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E53" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F53" s="8" t="s">
+      <c r="E53" s="7">
+        <v>10001</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G53" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="H53" s="8"/>
+      <c r="G53" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E54" s="7">
-        <v>10001</v>
-      </c>
-      <c r="F54" s="7" t="s">
+      <c r="B54" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="E54" s="8">
+        <v>9789123456</v>
+      </c>
+      <c r="F54" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="H54" s="7"/>
+      <c r="G54" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="8">
+      <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E55" s="8">
-        <v>9789123456</v>
-      </c>
-      <c r="F55" s="8" t="s">
+      <c r="B55" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="E55" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H55" s="8"/>
+      <c r="F55" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H55" s="7"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="7">
+      <c r="A56" s="8">
         <v>55</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H56" s="7"/>
+      <c r="B56" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H56" s="8"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="8">
+      <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H57" s="8"/>
+      <c r="B57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7">
+        <v>10</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7">
-        <v>10</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="7"/>
+      <c r="B58" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H58" s="8"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="8">
         <v>58</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="H59" s="8"/>
+      <c r="B59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7">
+        <v>5</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7">
-        <v>5</v>
-      </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
+      <c r="B60" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H60" s="8"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="8">
+      <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8" t="s">
+      <c r="B61" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="E61" s="7">
+        <v>1</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H61" s="8"/>
+      <c r="G61" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H61" s="7"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="7">
+      <c r="A62" s="8">
         <v>61</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E62" s="7">
+      <c r="B62" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="H62" s="8"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="7">
+        <v>62</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E63" s="7">
         <v>1</v>
       </c>
-      <c r="F62" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="8">
-        <v>62</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G63" s="8" t="s">
+      <c r="F63" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H63" s="8"/>
+      <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64" s="7" t="s">
+      <c r="B64" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E64" s="7">
-        <v>1</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G64" s="7" t="s">
+      <c r="E64" s="8"/>
+      <c r="F64" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="H64" s="7"/>
+      <c r="G64" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H64" s="8"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="8">
         <v>64</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8" t="s">
+      <c r="B65" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G65" s="8" t="s">
+      <c r="E65" s="7">
+        <v>1235647899</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H65" s="8"/>
+      <c r="G65" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H65" s="7"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E66" s="7">
-        <v>1235647899</v>
-      </c>
-      <c r="F66" s="7" t="s">
+      <c r="B66" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="7">
+        <v>66</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="H66" s="7"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="8">
-        <v>66</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D67" s="8" t="s">
+      <c r="E67" s="7"/>
+      <c r="F67" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
+      <c r="G67" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H67" s="7"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="7">
+      <c r="A68" s="8">
         <v>67</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7" t="s">
+      <c r="B68" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="E68" s="8">
+        <v>97890456789</v>
+      </c>
+      <c r="F68" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="H68" s="7"/>
+      <c r="G68" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H68" s="8"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="8">
+      <c r="A69" s="7">
         <v>68</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E69" s="8">
-        <v>97890456789</v>
-      </c>
-      <c r="F69" s="8" t="s">
+      <c r="B69" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G69" s="8" t="s">
+      <c r="E69" s="7"/>
+      <c r="F69" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H69" s="8"/>
+      <c r="G69" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H69" s="7"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7" t="s">
+      <c r="B70" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="E70" s="8">
+        <v>1230</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="H70" s="7"/>
+      <c r="G70" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H70" s="8"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="8">
         <v>70</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D71" s="8" t="s">
+      <c r="B71" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E71" s="7">
+        <v>1550</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E71" s="8">
-        <v>1230</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="H71" s="8"/>
+      <c r="H71" s="7"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D72" s="7" t="s">
+      <c r="B72" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="E72" s="7">
-        <v>1550</v>
-      </c>
-      <c r="F72" s="7" t="s">
+      <c r="E72" s="8"/>
+      <c r="F72" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="G72" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H72" s="7"/>
+      <c r="G72" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H72" s="8"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="8">
+      <c r="A73" s="7">
         <v>72</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" s="8" t="s">
+      <c r="B73" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8" t="s">
+      <c r="E73" s="7"/>
+      <c r="F73" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G73" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="H73" s="8"/>
+      <c r="G73" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H73" s="7"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="7">
+      <c r="A74" s="8">
         <v>73</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D74" s="7" t="s">
+      <c r="B74" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G74" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H74" s="7"/>
+      <c r="H74" s="8"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="8">
+      <c r="A75" s="7">
         <v>74</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D75" s="8" t="s">
+      <c r="B75" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8" t="s">
+      <c r="E75" s="7"/>
+      <c r="F75" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G75" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="H75" s="8"/>
+      <c r="G75" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H75" s="7"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="B76" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H76" s="7"/>
+      <c r="B76" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H76" s="8"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="8">
         <v>76</v>
       </c>
-      <c r="B77" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H77" s="8"/>
+      <c r="B77" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7">
+        <v>10</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" s="7"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="7">
         <v>77</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="H78" s="8"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="7">
+        <v>78</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7">
-        <v>10</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="7" t="s">
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7">
+        <v>4</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G79" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H78" s="7"/>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="8">
-        <v>78</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8" t="s">
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="8">
+        <v>79</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="G79" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="H79" s="8"/>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="7">
-        <v>79</v>
-      </c>
-      <c r="B80" s="7" t="s">
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="H80" s="8"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="7">
+        <v>80</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7">
-        <v>4</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H80" s="7"/>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="8">
-        <v>80</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="H81" s="8"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7">
+        <v>3</v>
+      </c>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7">
         <v>81</v>
       </c>
-      <c r="B82" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7">
-        <v>3</v>
-      </c>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
+      <c r="B82" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H82" s="8"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="8">
         <v>82</v>
       </c>
-      <c r="B83" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H83" s="8"/>
+      <c r="B83" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7">
+        <v>2</v>
+      </c>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="7">
         <v>83</v>
       </c>
-      <c r="B84" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7">
-        <v>2</v>
-      </c>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
+      <c r="B84" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E84" s="8">
+        <v>1</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H84" s="8"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="8">
+      <c r="A85" s="7">
         <v>84</v>
       </c>
-      <c r="B85" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D85" s="8" t="s">
+      <c r="B85" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="E85" s="8">
-        <v>1</v>
-      </c>
-      <c r="F85" s="8" t="s">
+      <c r="E85" s="7"/>
+      <c r="F85" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="8">
+        <v>85</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="G85" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H85" s="8"/>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="7">
-        <v>85</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D86" s="7" t="s">
+      <c r="E86" s="8"/>
+      <c r="F86" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H86" s="7"/>
+      <c r="G86" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H86" s="8"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="8">
+      <c r="A87" s="7">
         <v>86</v>
       </c>
-      <c r="B87" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D87" s="8" t="s">
+      <c r="B87" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8" t="s">
+      <c r="E87" s="7"/>
+      <c r="F87" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G87" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="H87" s="8"/>
+      <c r="G87" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H87" s="7"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="7">
         <v>87</v>
       </c>
-      <c r="B88" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H88" s="7"/>
+      <c r="B88" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8">
+        <v>4</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" s="8"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="8">
         <v>88</v>
       </c>
-      <c r="B89" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8">
-        <v>4</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89" s="8"/>
+      <c r="B89" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="7">
         <v>89</v>
       </c>
-      <c r="B90" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D90" s="7" t="s">
+      <c r="B90" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8">
+        <v>5</v>
+      </c>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="7">
+        <v>90</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="8">
+        <v>91</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="8">
-        <v>90</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8">
-        <v>5</v>
-      </c>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="7">
-        <v>91</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D92" s="7" t="s">
+      <c r="E92" s="8"/>
+      <c r="F92" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H92" s="8"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="7">
+        <v>92</v>
+      </c>
+      <c r="B93" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H92" s="7"/>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="8">
-        <v>92</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D93" s="8" t="s">
+      <c r="C93" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H93" s="8"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H93" s="7"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="7">
         <v>93</v>
       </c>
-      <c r="B94" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D94" s="7" t="s">
+      <c r="B94" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H94" s="7"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H94" s="8"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="8">
         <v>94</v>
       </c>
-      <c r="B95" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D95" s="8" t="s">
+      <c r="B95" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="G95" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="H95" s="8"/>
+      <c r="G95" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H95" s="7"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="7">
         <v>95</v>
       </c>
-      <c r="B96" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D96" s="7" t="s">
+      <c r="B96" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7" t="s">
+      <c r="E96" s="8"/>
+      <c r="F96" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="G96" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H96" s="7"/>
+      <c r="G96" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H96" s="8"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="8">
+      <c r="A97" s="7">
         <v>96</v>
       </c>
-      <c r="B97" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D97" s="8" t="s">
+      <c r="B97" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8" t="s">
+      <c r="E97" s="7"/>
+      <c r="F97" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="G97" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H97" s="8"/>
+      <c r="G97" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H97" s="7"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="7">
+      <c r="A98" s="8">
         <v>97</v>
       </c>
-      <c r="B98" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D98" s="7" t="s">
+      <c r="B98" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7" t="s">
+      <c r="E98" s="8"/>
+      <c r="F98" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="G98" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H98" s="7"/>
+      <c r="G98" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H98" s="8"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="8">
+      <c r="A99" s="7">
         <v>98</v>
       </c>
-      <c r="B99" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D99" s="8" t="s">
+      <c r="B99" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8" t="s">
+      <c r="E99" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="G99" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H99" s="8"/>
+      <c r="F99" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H99" s="7"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="7">
         <v>99</v>
       </c>
-      <c r="B100" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E100" s="7" t="s">
+      <c r="B100" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="F100" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G100" s="7" t="s">
+      <c r="E100" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="H100" s="7"/>
+      <c r="F100" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H100" s="8"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="8">
         <v>100</v>
       </c>
-      <c r="B101" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E101" s="8" t="s">
+      <c r="B101" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D101" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F101" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H101" s="8"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="7">
         <v>101</v>
       </c>
-      <c r="B102" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102" s="7" t="s">
+      <c r="B102" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E102" s="8">
+        <v>1</v>
+      </c>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="7">
+        <v>102</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="8">
-        <v>102</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D103" s="8" t="s">
+      <c r="E103" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="E103" s="8">
-        <v>1</v>
-      </c>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="7">
+      <c r="A104" s="8">
         <v>103</v>
       </c>
-      <c r="B104" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D104" s="7" t="s">
+      <c r="B104" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E104" s="8">
+        <v>10001</v>
+      </c>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="7">
+        <v>104</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="E104" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="8">
-        <v>104</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E105" s="8">
-        <v>10001</v>
-      </c>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
+      <c r="E105" s="7">
+        <v>9789045678</v>
+      </c>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="7">
         <v>105</v>
       </c>
-      <c r="B106" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E106" s="7">
-        <v>9789045678</v>
-      </c>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
+      <c r="B106" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E106" s="8">
+        <v>21331</v>
+      </c>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="8">
         <v>106</v>
       </c>
-      <c r="B107" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E107" s="8">
-        <v>21331</v>
-      </c>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
+      <c r="B107" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E107" s="7">
+        <v>97989898982</v>
+      </c>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="7">
         <v>107</v>
       </c>
-      <c r="B108" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D108" s="7" t="s">
+      <c r="B108" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="7">
+        <v>108</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D109" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="E108" s="7">
-        <v>97989898982</v>
-      </c>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="8">
-        <v>108</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" s="8" t="s">
+      <c r="E109" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="E109" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="7">
+      <c r="A110" s="8">
         <v>109</v>
       </c>
-      <c r="B110" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" s="7" t="s">
+      <c r="B110" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D110" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="E110" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="7">
+        <v>110</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D111" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="8">
-        <v>110</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="7">
         <v>111</v>
       </c>
-      <c r="B112" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
+      <c r="B112" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8">
+        <v>2</v>
+      </c>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="8">
         <v>112</v>
       </c>
-      <c r="B113" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8">
-        <v>2</v>
-      </c>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
+      <c r="B113" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="7">
         <v>113</v>
       </c>
-      <c r="B114" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D114" s="7" t="s">
+      <c r="B114" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H114" s="8"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="7">
+        <v>114</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7">
+        <v>10</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H115" s="7"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="8">
+        <v>115</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E116" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="8">
-        <v>114</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G115" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H115" s="8"/>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="7">
-        <v>115</v>
-      </c>
-      <c r="B116" s="7" t="s">
+      <c r="F116" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="H116" s="8"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="7">
+        <v>116</v>
+      </c>
+      <c r="B117" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7">
-        <v>10</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H116" s="7"/>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="8">
-        <v>116</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="H117" s="8"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7">
+        <v>5</v>
+      </c>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="7">
         <v>117</v>
       </c>
-      <c r="B118" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7">
-        <v>5</v>
-      </c>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
+      <c r="B118" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="H118" s="8"/>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="8">
         <v>118</v>
       </c>
-      <c r="B119" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8" t="s">
+      <c r="B119" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D119" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="G119" s="8" t="s">
+      <c r="E119" s="7"/>
+      <c r="F119" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="H119" s="8"/>
+      <c r="G119" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H119" s="7"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="7">
         <v>119</v>
       </c>
-      <c r="B120" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D120" s="7" t="s">
+      <c r="B120" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G120" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7" t="s">
+      <c r="H120" s="8"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="7">
+        <v>120</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H121" s="7"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="8">
+        <v>121</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8">
+        <v>10</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H122" s="8"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="7">
+        <v>122</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D123" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G120" s="7" t="s">
+      <c r="E123" s="7"/>
+      <c r="F123" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="H120" s="7"/>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="8">
-        <v>120</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G121" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="H121" s="8"/>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="7">
-        <v>121</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H122" s="7"/>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="8">
-        <v>122</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8">
-        <v>10</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H123" s="8"/>
+      <c r="G123" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H123" s="7"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="7">
         <v>123</v>
       </c>
-      <c r="B124" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7" t="s">
+      <c r="B124" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D124" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="G124" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H124" s="7"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="8">
         <v>124</v>
       </c>
-      <c r="B125" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="8"/>
+      <c r="B125" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7">
+        <v>1</v>
+      </c>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="7">
         <v>125</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="H126" s="8"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="7">
+        <v>126</v>
+      </c>
+      <c r="B127" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7">
-        <v>1</v>
-      </c>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="7"/>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="8">
-        <v>126</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8" t="s">
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7">
+        <v>5</v>
+      </c>
+      <c r="F127" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="G127" s="8" t="s">
+      <c r="G127" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="H127" s="8"/>
+      <c r="H127" s="7"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="7">
+      <c r="A128" s="8">
         <v>127</v>
       </c>
-      <c r="B128" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7">
-        <v>5</v>
-      </c>
-      <c r="F128" s="7" t="s">
+      <c r="B128" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D128" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="G128" s="7" t="s">
+      <c r="E128" s="8"/>
+      <c r="F128" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="H128" s="7"/>
+      <c r="G128" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="H128" s="8"/>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="8">
+      <c r="A129" s="7">
         <v>128</v>
       </c>
-      <c r="B129" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8" t="s">
+      <c r="B129" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="G129" s="8" t="s">
+      <c r="E129" s="7"/>
+      <c r="F129" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="H129" s="8"/>
+      <c r="G129" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H129" s="7"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="7">
         <v>129</v>
       </c>
-      <c r="B130" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H130" s="7"/>
+      <c r="B130" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8">
+        <v>2</v>
+      </c>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="8"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="8">
         <v>130</v>
       </c>
-      <c r="B131" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8">
-        <v>2</v>
-      </c>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="8"/>
+      <c r="B131" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H131" s="7"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="7">
         <v>131</v>
       </c>
-      <c r="B132" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F132" s="7" t="s">
+      <c r="B132" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D132" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="G132" s="7" t="s">
+      <c r="E132" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F132" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="H132" s="7"/>
+      <c r="G132" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="H132" s="8"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="8">
+      <c r="A133" s="7">
         <v>132</v>
       </c>
-      <c r="B133" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="F133" s="8" t="s">
+      <c r="B133" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E133" s="7">
+        <v>9889656446</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H133" s="7"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="8">
+        <v>133</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D134" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="G133" s="8" t="s">
+      <c r="E134" s="8"/>
+      <c r="F134" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="H133" s="8"/>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="7">
-        <v>133</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E134" s="7">
-        <v>9889656446</v>
-      </c>
-      <c r="F134" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G134" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H134" s="7"/>
+      <c r="G134" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H134" s="8"/>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="8">
+      <c r="A135" s="7">
         <v>134</v>
       </c>
-      <c r="B135" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G135" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="H135" s="8"/>
+      <c r="B135" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7">
+        <v>10</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H135" s="7"/>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="7">
         <v>135</v>
       </c>
-      <c r="B136" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7">
-        <v>10</v>
-      </c>
-      <c r="F136" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G136" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H136" s="7"/>
+      <c r="B136" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G136" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="H136" s="8"/>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="8">
         <v>136</v>
       </c>
-      <c r="B137" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="G137" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="H137" s="8"/>
+      <c r="B137" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7">
+        <v>5</v>
+      </c>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="7">
         <v>137</v>
       </c>
-      <c r="B138" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G138" s="7" t="s">
+      <c r="B138" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="G138" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="H138" s="7"/>
+      <c r="H138" s="8"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="8">
+      <c r="A139" s="7">
         <v>138</v>
       </c>
-      <c r="B139" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="G139" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="H139" s="8"/>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" s="7">
-        <v>139</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G140" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H140" s="7"/>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" s="8">
-        <v>140</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="G141" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="H141" s="8"/>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" s="7">
-        <v>141</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G142" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H142" s="7"/>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143" s="8">
-        <v>142</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="G143" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="H143" s="8"/>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" s="7">
-        <v>143</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G144" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H144" s="7"/>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="8">
-        <v>144</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="G145" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="H145" s="8"/>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="7">
-        <v>145</v>
-      </c>
-      <c r="B146" s="7" t="s">
+      <c r="B139" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
-      <c r="E146" s="7">
-        <v>5</v>
-      </c>
-      <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="7"/>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" s="8">
-        <v>146</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="E147" s="8"/>
-      <c r="F147" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="G147" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="H147" s="8"/>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" s="7">
-        <v>147</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C148" s="7"/>
-      <c r="D148" s="7"/>
-      <c r="E148" s="7">
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7">
         <v>4</v>
       </c>
-      <c r="F148" s="7"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="7"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B128">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B127">
       <formula1/>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
@@ -5559,22 +5300,22 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>[6]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B63 B129 B12:B61 B65:B78 B116:B121 B122:B126 B131:B146 C2:C3 C12:C78 C116:C121 C122:C126 C129:C146">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B62 B128 B12:B31 B32:B60 B64:B77 B115:B120 B121:B125 B130:B135 B136:B137 C2:C3 C12:C31 C32:C77 C115:C120 C121:C125 C128:C135 C136:C137">
       <formula1>[7]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C92 B101 C101 B4:B11 B79:B100 B102:B113 C7:C9 C79:C80 C90:C91 C93:C96 C97:C100 C102:C107 C108:C113">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C91 B100 C100 B4:B11 B78:B99 B101:B112 C7:C9 C78:C79 C89:C90 C92:C95 C96:C99 C101:C106 C107:C112">
       <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62 B64">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B61 B63">
       <formula1>[8]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C115">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C114">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114:B115">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B113:B114">
       <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B147:B148">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B138:B139">
       <formula1>[5]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -5605,28 +5346,28 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="C3" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5634,506 +5375,506 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="C6" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="C8" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="C10" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="C11" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6148,12 +5889,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_Provider.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_Provider.xlsx
@@ -2330,8 +2330,8 @@
   <sheetPr/>
   <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2461,7 +2461,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
